--- a/shiny/refs/ST03-T2CE.xlsx
+++ b/shiny/refs/ST03-T2CE.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eforms\2024\ST01-10-TRI_2024a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git workspaces\gitlab\ICCAT\apps\SCRS\data_exporter\shiny\refs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC077CF0-9143-4952-BF3D-E42A5B256BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A3E484-2974-4471-97F1-F81866FC57D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="RjvDv/erpWlm24gYnviIGuGeK8XADT4tZ690DySAsrSHKqb0w+OuiivIoxzklndT0L63KdZQKfDoItntYjdmsw==" workbookSaltValue="WixZvtgiyvYeB45viNL2Cg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ST03-T2CE" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3733" uniqueCount="2350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3694" uniqueCount="2350">
   <si>
     <t>Name</t>
   </si>
@@ -8014,7 +8014,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -8768,6 +8768,132 @@
       <alignment vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -8806,22 +8932,6 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -8834,10 +8944,6 @@
       <alignment vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -8854,114 +8960,10 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection hidden="1"/>
@@ -8973,6 +8975,62 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
@@ -8985,10 +9043,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
@@ -8997,10 +9051,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
@@ -9025,54 +9075,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
@@ -9108,9 +9110,6 @@
       <alignment vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -9189,13 +9188,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -9214,6 +9206,13 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11302,56 +11301,56 @@
   <dimension ref="A1:AN50"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="C5" sqref="C5:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="44" customWidth="1"/>
-    <col min="2" max="2" width="14.23046875" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.765625" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.07421875" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.4609375" style="44" customWidth="1"/>
-    <col min="6" max="6" width="8.84375" style="44" customWidth="1"/>
-    <col min="7" max="7" width="9.765625" style="44" customWidth="1"/>
-    <col min="8" max="9" width="6.07421875" style="44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="44" customWidth="1"/>
+    <col min="8" max="9" width="6.140625" style="44" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="44" customWidth="1"/>
-    <col min="11" max="11" width="7.23046875" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="44" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="44" customWidth="1"/>
-    <col min="13" max="13" width="7.23046875" style="44" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.84375" style="44" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.4609375" style="44" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="5.84375" style="44" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.23046875" style="44" bestFit="1" customWidth="1"/>
-    <col min="19" max="38" width="5.84375" style="44" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.84375" style="44" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" style="44" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="5.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" style="44" bestFit="1" customWidth="1"/>
+    <col min="19" max="38" width="5.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.85546875" style="44" customWidth="1"/>
     <col min="40" max="40" width="5" style="44" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="8.765625" style="44"/>
+    <col min="41" max="16384" width="8.7109375" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="31" customFormat="1" ht="19.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="233" t="str">
+    <row r="1" spans="1:21" s="31" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="211" t="str">
         <f>VLOOKUP("T00",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>ST03-T2CE</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="237" t="str">
+      <c r="B1" s="212"/>
+      <c r="C1" s="215" t="str">
         <f>VLOOKUP("T00",tblTrans3Langs[],LangNameID,FALSE)</f>
         <v>TASK 2 - CATCH AND EFFORT</v>
       </c>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="237"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="215"/>
+      <c r="O1" s="215"/>
+      <c r="P1" s="215"/>
       <c r="Q1" s="135" t="str">
         <f>VLOOKUP("tVersion",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Version</v>
@@ -11361,26 +11360,26 @@
         <v>Language</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="31" customFormat="1" ht="14.15" x14ac:dyDescent="0.3">
-      <c r="A2" s="235"/>
-      <c r="B2" s="236"/>
-      <c r="C2" s="238" t="str">
+    <row r="2" spans="1:21" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="213"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="216" t="str">
         <f>VLOOKUP("T01",tblTrans3Langs[],LangFieldID,FALSE)&amp;": "&amp;VLOOKUP("T01",tblTrans3Langs[],LangNameID,FALSE)</f>
         <v>ICCAT: INTERNATIONAL COMMISSION FOR THE CONSERVATION OF ATLANTIC TUNAS</v>
       </c>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="238"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="238"/>
-      <c r="O2" s="238"/>
-      <c r="P2" s="238"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
       <c r="Q2" s="174" t="s">
         <v>2329</v>
       </c>
@@ -11388,40 +11387,40 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="10" customFormat="1" ht="10.75" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:21" s="10" customFormat="1" ht="10.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="244" t="str">
+    <row r="3" spans="1:21" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:21" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="225" t="str">
         <f>VLOOKUP("H10",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Statistical Correspondent</v>
       </c>
-      <c r="B4" s="245"/>
-      <c r="C4" s="245"/>
-      <c r="D4" s="245"/>
-      <c r="E4" s="245"/>
-      <c r="F4" s="245"/>
-      <c r="G4" s="245"/>
-      <c r="H4" s="245"/>
-      <c r="I4" s="245"/>
+      <c r="B4" s="226"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="226"/>
+      <c r="H4" s="226"/>
+      <c r="I4" s="226"/>
       <c r="J4" s="80" t="str">
         <f>IF(AND(C5&gt;0,C6&gt;0,G6&gt;0,C7&gt;0,C8&gt;0,C9&gt;0,G9&gt;0),"ok","inc")</f>
         <v>inc</v>
       </c>
-      <c r="K4" s="239" t="str">
+      <c r="K4" s="217" t="str">
         <f>VLOOKUP("H20",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Secretariat use only</v>
       </c>
-      <c r="L4" s="240"/>
-      <c r="M4" s="240"/>
-      <c r="N4" s="240"/>
-      <c r="O4" s="240"/>
-      <c r="P4" s="242" t="str">
+      <c r="L4" s="218"/>
+      <c r="M4" s="218"/>
+      <c r="N4" s="218"/>
+      <c r="O4" s="218"/>
+      <c r="P4" s="223" t="str">
         <f>VLOOKUP("H21",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Filtering criteria</v>
       </c>
-      <c r="Q4" s="242"/>
-      <c r="R4" s="243"/>
-    </row>
-    <row r="5" spans="1:21" s="10" customFormat="1" ht="10.75" x14ac:dyDescent="0.3">
+      <c r="Q4" s="223"/>
+      <c r="R4" s="224"/>
+    </row>
+    <row r="5" spans="1:21" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="str">
         <f>VLOOKUP("H11",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Identification</v>
@@ -11430,21 +11429,21 @@
         <f>VLOOKUP("hName",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Name</v>
       </c>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="213"/>
-      <c r="G5" s="213"/>
-      <c r="H5" s="213"/>
-      <c r="I5" s="213"/>
+      <c r="C5" s="227"/>
+      <c r="D5" s="227"/>
+      <c r="E5" s="227"/>
+      <c r="F5" s="227"/>
+      <c r="G5" s="227"/>
+      <c r="H5" s="227"/>
+      <c r="I5" s="227"/>
       <c r="J5" s="83"/>
-      <c r="K5" s="215" t="str">
+      <c r="K5" s="221" t="str">
         <f>VLOOKUP("hDaterep",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Date reported</v>
       </c>
-      <c r="L5" s="216"/>
-      <c r="M5" s="241"/>
-      <c r="N5" s="214"/>
+      <c r="L5" s="222"/>
+      <c r="M5" s="219"/>
+      <c r="N5" s="220"/>
       <c r="O5" s="79"/>
       <c r="P5" s="84"/>
       <c r="Q5" s="85" t="str">
@@ -11456,30 +11455,30 @@
         <v>Filter 2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="10" customFormat="1" ht="10.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="86"/>
       <c r="B6" s="82" t="str">
         <f>VLOOKUP("hEmail",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>E-mail</v>
       </c>
-      <c r="C6" s="217"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="218"/>
+      <c r="C6" s="246"/>
+      <c r="D6" s="247"/>
+      <c r="E6" s="247"/>
       <c r="F6" s="87" t="str">
         <f>VLOOKUP("hPhone",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Phone</v>
       </c>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="208"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="241"/>
       <c r="J6" s="88"/>
-      <c r="K6" s="215" t="str">
+      <c r="K6" s="221" t="str">
         <f>VLOOKUP("hRef",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Reference Nº</v>
       </c>
-      <c r="L6" s="216"/>
-      <c r="M6" s="214"/>
-      <c r="N6" s="214"/>
+      <c r="L6" s="222"/>
+      <c r="M6" s="220"/>
+      <c r="N6" s="220"/>
       <c r="O6" s="79"/>
       <c r="P6" s="89" t="s">
         <v>632</v>
@@ -11491,7 +11490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="10" customFormat="1" ht="10.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="91" t="str">
         <f>VLOOKUP("H12",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Affiliation</v>
@@ -11500,12 +11499,12 @@
         <f>VLOOKUP("hInstit",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Institution</v>
       </c>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="213"/>
+      <c r="C7" s="227"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="227"/>
       <c r="I7" s="92"/>
       <c r="J7" s="88"/>
       <c r="K7" s="93"/>
@@ -11525,28 +11524,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="10" customFormat="1" ht="10.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="94"/>
       <c r="B8" s="87" t="str">
         <f>VLOOKUP("hDepart",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Department</v>
       </c>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="213"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="227"/>
+      <c r="H8" s="227"/>
       <c r="I8" s="79"/>
       <c r="J8" s="88"/>
-      <c r="K8" s="209" t="str">
+      <c r="K8" s="242" t="str">
         <f>VLOOKUP("hFname",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>File name (proposed)</v>
       </c>
-      <c r="L8" s="210"/>
-      <c r="M8" s="210"/>
-      <c r="N8" s="210"/>
-      <c r="O8" s="210"/>
+      <c r="L8" s="243"/>
+      <c r="M8" s="243"/>
+      <c r="N8" s="243"/>
+      <c r="O8" s="243"/>
       <c r="P8" s="89" t="s">
         <v>634</v>
       </c>
@@ -11557,31 +11556,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="10" customFormat="1" ht="10.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="94"/>
       <c r="B9" s="87" t="str">
         <f>VLOOKUP("hAddress",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Address</v>
       </c>
-      <c r="C9" s="226"/>
-      <c r="D9" s="226"/>
-      <c r="E9" s="226"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="253"/>
       <c r="F9" s="95" t="str">
         <f>VLOOKUP("hCountry",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Country</v>
       </c>
-      <c r="G9" s="227"/>
-      <c r="H9" s="227"/>
-      <c r="I9" s="227"/>
+      <c r="G9" s="228"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="228"/>
       <c r="J9" s="88"/>
-      <c r="K9" s="211" t="str">
+      <c r="K9" s="244" t="str">
         <f>IF(AND(J4="ok",J11="ok"),"ST03_"&amp;E12&amp;C13&amp;"-"&amp;RIGHT(E13,2)&amp;LEFT(C17,1)&amp;"-"&amp;LEFT(C19,2)&amp;"#"&amp;M6&amp;".xlsx","")</f>
         <v/>
       </c>
-      <c r="L9" s="212"/>
-      <c r="M9" s="212"/>
-      <c r="N9" s="212"/>
-      <c r="O9" s="212"/>
+      <c r="L9" s="245"/>
+      <c r="M9" s="245"/>
+      <c r="N9" s="245"/>
+      <c r="O9" s="245"/>
       <c r="P9" s="89" t="s">
         <v>635</v>
       </c>
@@ -11590,7 +11589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="10" customFormat="1" ht="10.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="97"/>
       <c r="B10" s="98"/>
       <c r="C10" s="98"/>
@@ -11614,19 +11613,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="10" customFormat="1" ht="10.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="222" t="str">
+    <row r="11" spans="1:21" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="250" t="str">
         <f>VLOOKUP("H30",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Data set characteristics</v>
       </c>
-      <c r="B11" s="223"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="223"/>
-      <c r="I11" s="223"/>
+      <c r="B11" s="251"/>
+      <c r="C11" s="251"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="251"/>
+      <c r="F11" s="251"/>
+      <c r="G11" s="251"/>
+      <c r="H11" s="251"/>
+      <c r="I11" s="251"/>
       <c r="J11" s="106" t="str">
         <f>IF(E12="","inc",IF(AND(C13&gt;0,E13&gt;0, C17&gt;0,C14&gt;=0,C15&gt;0,H13&gt;0,C18&gt;0),"ok","inc"))</f>
         <v>inc</v>
@@ -11643,41 +11642,41 @@
       <c r="Q11" s="79"/>
       <c r="R11" s="107"/>
     </row>
-    <row r="12" spans="1:21" s="10" customFormat="1" ht="10.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="224" t="str">
+    <row r="12" spans="1:21" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="252" t="str">
         <f>VLOOKUP("hFlagrep",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Reporting Flag</v>
       </c>
-      <c r="B12" s="225"/>
-      <c r="C12" s="220"/>
-      <c r="D12" s="220"/>
+      <c r="B12" s="234"/>
+      <c r="C12" s="230"/>
+      <c r="D12" s="230"/>
       <c r="E12" s="88" t="str">
         <f>IFERROR(IF(C12&gt;0,VLOOKUP(C12,Codes!A3:B175,2,FALSE),""),"")</f>
         <v/>
       </c>
       <c r="F12" s="79"/>
-      <c r="G12" s="219" t="str">
+      <c r="G12" s="248" t="str">
         <f>VLOOKUP("H31",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Effort (multiplier)</v>
       </c>
-      <c r="H12" s="219"/>
-      <c r="I12" s="219"/>
+      <c r="H12" s="248"/>
+      <c r="I12" s="248"/>
       <c r="J12" s="79"/>
-      <c r="K12" s="220"/>
-      <c r="L12" s="220"/>
-      <c r="M12" s="220"/>
-      <c r="N12" s="220"/>
-      <c r="O12" s="220"/>
-      <c r="P12" s="220"/>
-      <c r="Q12" s="220"/>
-      <c r="R12" s="221"/>
-    </row>
-    <row r="13" spans="1:21" s="10" customFormat="1" ht="10.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="229" t="str">
+      <c r="K12" s="230"/>
+      <c r="L12" s="230"/>
+      <c r="M12" s="230"/>
+      <c r="N12" s="230"/>
+      <c r="O12" s="230"/>
+      <c r="P12" s="230"/>
+      <c r="Q12" s="230"/>
+      <c r="R12" s="249"/>
+    </row>
+    <row r="13" spans="1:21" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="231" t="str">
         <f>VLOOKUP("hYearfrom",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Years covered (from)</v>
       </c>
-      <c r="B13" s="228"/>
+      <c r="B13" s="229"/>
       <c r="C13" s="32"/>
       <c r="D13" s="108" t="str">
         <f>VLOOKUP("hYearto",tblTrans3Langs[],LangFieldID,FALSE)</f>
@@ -11694,21 +11693,21 @@
       </c>
       <c r="I13" s="79"/>
       <c r="J13" s="110"/>
-      <c r="K13" s="220"/>
-      <c r="L13" s="220"/>
-      <c r="M13" s="220"/>
-      <c r="N13" s="220"/>
-      <c r="O13" s="220"/>
-      <c r="P13" s="220"/>
-      <c r="Q13" s="220"/>
-      <c r="R13" s="221"/>
-    </row>
-    <row r="14" spans="1:21" s="10" customFormat="1" ht="10.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="228" t="str">
+      <c r="K13" s="230"/>
+      <c r="L13" s="230"/>
+      <c r="M13" s="230"/>
+      <c r="N13" s="230"/>
+      <c r="O13" s="230"/>
+      <c r="P13" s="230"/>
+      <c r="Q13" s="230"/>
+      <c r="R13" s="249"/>
+    </row>
+    <row r="14" spans="1:21" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="229" t="str">
         <f>VLOOKUP("hDatacov",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Data coverage %</v>
       </c>
-      <c r="B14" s="228"/>
+      <c r="B14" s="229"/>
       <c r="C14" s="32"/>
       <c r="D14" s="79" t="s">
         <v>19</v>
@@ -11724,137 +11723,137 @@
       </c>
       <c r="I14" s="79"/>
       <c r="J14" s="79"/>
-      <c r="K14" s="220"/>
-      <c r="L14" s="220"/>
-      <c r="M14" s="220"/>
-      <c r="N14" s="220"/>
-      <c r="O14" s="220"/>
-      <c r="P14" s="220"/>
-      <c r="Q14" s="220"/>
-      <c r="R14" s="221"/>
+      <c r="K14" s="230"/>
+      <c r="L14" s="230"/>
+      <c r="M14" s="230"/>
+      <c r="N14" s="230"/>
+      <c r="O14" s="230"/>
+      <c r="P14" s="230"/>
+      <c r="Q14" s="230"/>
+      <c r="R14" s="249"/>
       <c r="U14" s="20"/>
     </row>
-    <row r="15" spans="1:21" s="10" customFormat="1" ht="10.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="225" t="str">
+    <row r="15" spans="1:21" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="234" t="str">
         <f>VLOOKUP("hDsourceCd",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Data source (cod)</v>
       </c>
-      <c r="B15" s="225"/>
+      <c r="B15" s="234"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="231" t="str">
+      <c r="D15" s="233" t="str">
         <f>IF(C15&gt;0,VLOOKUP(C15,Codes!$T$25:$U$31,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="E15" s="231"/>
+      <c r="E15" s="233"/>
       <c r="F15" s="109"/>
       <c r="G15" s="79"/>
       <c r="H15" s="79"/>
       <c r="I15" s="79"/>
       <c r="J15" s="79"/>
-      <c r="K15" s="220"/>
-      <c r="L15" s="220"/>
-      <c r="M15" s="220"/>
-      <c r="N15" s="220"/>
-      <c r="O15" s="220"/>
-      <c r="P15" s="220"/>
-      <c r="Q15" s="220"/>
-      <c r="R15" s="221"/>
-    </row>
-    <row r="16" spans="1:21" s="10" customFormat="1" ht="10.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="228"/>
-      <c r="B16" s="228"/>
+      <c r="K15" s="230"/>
+      <c r="L15" s="230"/>
+      <c r="M15" s="230"/>
+      <c r="N15" s="230"/>
+      <c r="O15" s="230"/>
+      <c r="P15" s="230"/>
+      <c r="Q15" s="230"/>
+      <c r="R15" s="249"/>
+    </row>
+    <row r="16" spans="1:21" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="229"/>
+      <c r="B16" s="229"/>
       <c r="C16" s="79"/>
       <c r="D16" s="79"/>
       <c r="E16" s="79"/>
       <c r="F16" s="79"/>
-      <c r="G16" s="219" t="str">
+      <c r="G16" s="248" t="str">
         <f>VLOOKUP("H32",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Catch attributes</v>
       </c>
-      <c r="H16" s="219"/>
-      <c r="I16" s="219"/>
+      <c r="H16" s="248"/>
+      <c r="I16" s="248"/>
       <c r="J16" s="79"/>
-      <c r="K16" s="220"/>
-      <c r="L16" s="220"/>
-      <c r="M16" s="220"/>
-      <c r="N16" s="220"/>
-      <c r="O16" s="220"/>
-      <c r="P16" s="220"/>
-      <c r="Q16" s="220"/>
-      <c r="R16" s="221"/>
-    </row>
-    <row r="17" spans="1:40" s="10" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="225" t="str">
+      <c r="K16" s="230"/>
+      <c r="L16" s="230"/>
+      <c r="M16" s="230"/>
+      <c r="N16" s="230"/>
+      <c r="O16" s="230"/>
+      <c r="P16" s="230"/>
+      <c r="Q16" s="230"/>
+      <c r="R16" s="249"/>
+    </row>
+    <row r="17" spans="1:40" s="10" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="234" t="str">
         <f>VLOOKUP("hVersion",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Version reported</v>
       </c>
-      <c r="B17" s="225"/>
-      <c r="C17" s="220"/>
-      <c r="D17" s="220"/>
+      <c r="B17" s="234"/>
+      <c r="C17" s="230"/>
+      <c r="D17" s="230"/>
       <c r="E17" s="79"/>
       <c r="F17" s="79"/>
-      <c r="G17" s="228" t="str">
+      <c r="G17" s="229" t="str">
         <f>VLOOKUP("hNrSpcCatchN",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>N. columns (sp*) in number (NR)</v>
       </c>
-      <c r="H17" s="228"/>
-      <c r="I17" s="228"/>
-      <c r="J17" s="108">
+      <c r="H17" s="229"/>
+      <c r="I17" s="229"/>
+      <c r="J17" s="108" t="str">
         <f>IF(COUNTA($O$23:$AN$23)&gt;0,COUNTIF($O$23:$AN$23,"=NR"),"")</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="220"/>
-      <c r="L17" s="220"/>
-      <c r="M17" s="220"/>
-      <c r="N17" s="220"/>
-      <c r="O17" s="220"/>
-      <c r="P17" s="220"/>
-      <c r="Q17" s="220"/>
-      <c r="R17" s="221"/>
-    </row>
-    <row r="18" spans="1:40" s="10" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="230" t="str">
+        <v/>
+      </c>
+      <c r="K17" s="230"/>
+      <c r="L17" s="230"/>
+      <c r="M17" s="230"/>
+      <c r="N17" s="230"/>
+      <c r="O17" s="230"/>
+      <c r="P17" s="230"/>
+      <c r="Q17" s="230"/>
+      <c r="R17" s="249"/>
+    </row>
+    <row r="18" spans="1:40" s="10" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="232" t="str">
         <f>VLOOKUP("hContent",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Content (data)</v>
       </c>
-      <c r="B18" s="230"/>
-      <c r="C18" s="232"/>
-      <c r="D18" s="232"/>
+      <c r="B18" s="232"/>
+      <c r="C18" s="235"/>
+      <c r="D18" s="235"/>
       <c r="E18" s="79"/>
       <c r="F18" s="79"/>
-      <c r="G18" s="228" t="str">
+      <c r="G18" s="229" t="str">
         <f>VLOOKUP("hNrSpcCatchW",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>N. columns (sp*) in weight (kg)</v>
       </c>
-      <c r="H18" s="228"/>
-      <c r="I18" s="228"/>
-      <c r="J18" s="108">
+      <c r="H18" s="229"/>
+      <c r="I18" s="229"/>
+      <c r="J18" s="108" t="str">
         <f>IF(COUNTA(O23:AN23)&gt;0,SUM(COUNTIFS(O23:AN23,{"LW","GG","DR","OT"})),"")</f>
-        <v>13</v>
-      </c>
-      <c r="K18" s="220"/>
-      <c r="L18" s="220"/>
-      <c r="M18" s="220"/>
-      <c r="N18" s="220"/>
-      <c r="O18" s="220"/>
-      <c r="P18" s="220"/>
-      <c r="Q18" s="220"/>
-      <c r="R18" s="221"/>
-    </row>
-    <row r="19" spans="1:40" s="10" customFormat="1" ht="10.75" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="K18" s="230"/>
+      <c r="L18" s="230"/>
+      <c r="M18" s="230"/>
+      <c r="N18" s="230"/>
+      <c r="O18" s="230"/>
+      <c r="P18" s="230"/>
+      <c r="Q18" s="230"/>
+      <c r="R18" s="249"/>
+    </row>
+    <row r="19" spans="1:40" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="111"/>
       <c r="B19" s="112"/>
-      <c r="C19" s="246" t="str">
+      <c r="C19" s="205" t="str">
         <f>IF(C18&gt;0,VLOOKUP(C18,Codes!$T$58:$V$61,3,FALSE) &amp; ": "&amp; VLOOKUP(C18,Codes!$T$58:$V$61,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D19" s="246"/>
-      <c r="E19" s="246"/>
-      <c r="F19" s="246"/>
-      <c r="G19" s="246"/>
-      <c r="H19" s="246"/>
-      <c r="I19" s="246"/>
-      <c r="J19" s="246"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="205"/>
+      <c r="F19" s="205"/>
+      <c r="G19" s="205"/>
+      <c r="H19" s="205"/>
+      <c r="I19" s="205"/>
+      <c r="J19" s="205"/>
       <c r="K19" s="112"/>
       <c r="L19" s="112"/>
       <c r="M19" s="112"/>
@@ -11864,8 +11863,8 @@
       <c r="Q19" s="102"/>
       <c r="R19" s="113"/>
     </row>
-    <row r="20" spans="1:40" s="10" customFormat="1" ht="10.75" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:40" s="45" customFormat="1" ht="11.15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:40" s="45" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -11879,39 +11878,39 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="152"/>
-      <c r="O21" s="206" t="str">
+      <c r="O21" s="239" t="str">
         <f>VLOOKUP("D20",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Species catch composition</v>
       </c>
-      <c r="P21" s="207"/>
-      <c r="Q21" s="207"/>
-      <c r="R21" s="207"/>
-      <c r="S21" s="207"/>
-      <c r="T21" s="207"/>
-      <c r="U21" s="207"/>
-      <c r="V21" s="207"/>
-      <c r="W21" s="207"/>
-      <c r="X21" s="207"/>
-      <c r="Y21" s="207"/>
-      <c r="Z21" s="207"/>
-      <c r="AA21" s="207"/>
-      <c r="AB21" s="207"/>
-      <c r="AC21" s="207"/>
-      <c r="AD21" s="207"/>
-      <c r="AE21" s="207"/>
-      <c r="AF21" s="207"/>
-      <c r="AG21" s="207"/>
-      <c r="AH21" s="207"/>
-      <c r="AI21" s="207"/>
-      <c r="AJ21" s="207"/>
-      <c r="AK21" s="207"/>
-      <c r="AL21" s="207"/>
-      <c r="AM21" s="207"/>
+      <c r="P21" s="240"/>
+      <c r="Q21" s="240"/>
+      <c r="R21" s="240"/>
+      <c r="S21" s="240"/>
+      <c r="T21" s="240"/>
+      <c r="U21" s="240"/>
+      <c r="V21" s="240"/>
+      <c r="W21" s="240"/>
+      <c r="X21" s="240"/>
+      <c r="Y21" s="240"/>
+      <c r="Z21" s="240"/>
+      <c r="AA21" s="240"/>
+      <c r="AB21" s="240"/>
+      <c r="AC21" s="240"/>
+      <c r="AD21" s="240"/>
+      <c r="AE21" s="240"/>
+      <c r="AF21" s="240"/>
+      <c r="AG21" s="240"/>
+      <c r="AH21" s="240"/>
+      <c r="AI21" s="240"/>
+      <c r="AJ21" s="240"/>
+      <c r="AK21" s="240"/>
+      <c r="AL21" s="240"/>
+      <c r="AM21" s="240"/>
       <c r="AN21" s="114" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="22" spans="1:40" s="32" customFormat="1" ht="10.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -11929,45 +11928,19 @@
         <f>VLOOKUP("SpeciesCd", tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Species (cod)</v>
       </c>
-      <c r="O22" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="P22" s="116" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="116" t="s">
-        <v>12</v>
-      </c>
-      <c r="R22" s="116" t="s">
-        <v>13</v>
-      </c>
-      <c r="S22" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="T22" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="U22" s="116" t="s">
-        <v>15</v>
-      </c>
-      <c r="V22" s="116" t="s">
-        <v>16</v>
-      </c>
-      <c r="W22" s="116" t="s">
-        <v>14</v>
-      </c>
-      <c r="X22" s="116" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y22" s="116" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z22" s="116" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA22" s="116" t="s">
-        <v>24</v>
-      </c>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="116"/>
+      <c r="U22" s="116"/>
+      <c r="V22" s="116"/>
+      <c r="W22" s="116"/>
+      <c r="X22" s="116"/>
+      <c r="Y22" s="116"/>
+      <c r="Z22" s="116"/>
+      <c r="AA22" s="116"/>
       <c r="AB22" s="116"/>
       <c r="AC22" s="116"/>
       <c r="AD22" s="116"/>
@@ -11982,66 +11955,40 @@
       <c r="AM22" s="116"/>
       <c r="AN22" s="116"/>
     </row>
-    <row r="23" spans="1:40" s="32" customFormat="1" ht="10.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="250" t="str">
+    <row r="23" spans="1:40" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="209" t="str">
         <f>VLOOKUP("D10",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Catch and effort attributes</v>
       </c>
-      <c r="B23" s="251"/>
-      <c r="C23" s="251"/>
-      <c r="D23" s="251"/>
-      <c r="E23" s="251"/>
-      <c r="F23" s="251"/>
-      <c r="G23" s="251"/>
-      <c r="H23" s="251"/>
-      <c r="I23" s="251"/>
-      <c r="J23" s="251"/>
-      <c r="K23" s="251"/>
-      <c r="L23" s="251"/>
-      <c r="M23" s="251"/>
+      <c r="B23" s="210"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="210"/>
+      <c r="G23" s="210"/>
+      <c r="H23" s="210"/>
+      <c r="I23" s="210"/>
+      <c r="J23" s="210"/>
+      <c r="K23" s="210"/>
+      <c r="L23" s="210"/>
+      <c r="M23" s="210"/>
       <c r="N23" s="185" t="str">
         <f>VLOOKUP("ProdTypCd",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Product type (cod)</v>
       </c>
-      <c r="O23" s="116" t="s">
-        <v>421</v>
-      </c>
-      <c r="P23" s="116" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q23" s="116" t="s">
-        <v>421</v>
-      </c>
-      <c r="R23" s="116" t="s">
-        <v>421</v>
-      </c>
-      <c r="S23" s="116" t="s">
-        <v>421</v>
-      </c>
-      <c r="T23" s="116" t="s">
-        <v>421</v>
-      </c>
-      <c r="U23" s="116" t="s">
-        <v>421</v>
-      </c>
-      <c r="V23" s="116" t="s">
-        <v>421</v>
-      </c>
-      <c r="W23" s="116" t="s">
-        <v>421</v>
-      </c>
-      <c r="X23" s="116" t="s">
-        <v>421</v>
-      </c>
-      <c r="Y23" s="116" t="s">
-        <v>421</v>
-      </c>
-      <c r="Z23" s="116" t="s">
-        <v>421</v>
-      </c>
-      <c r="AA23" s="116" t="s">
-        <v>421</v>
-      </c>
+      <c r="O23" s="116"/>
+      <c r="P23" s="116"/>
+      <c r="Q23" s="116"/>
+      <c r="R23" s="116"/>
+      <c r="S23" s="116"/>
+      <c r="T23" s="116"/>
+      <c r="U23" s="116"/>
+      <c r="V23" s="116"/>
+      <c r="W23" s="116"/>
+      <c r="X23" s="116"/>
+      <c r="Y23" s="116"/>
+      <c r="Z23" s="116"/>
+      <c r="AA23" s="116"/>
       <c r="AB23" s="116"/>
       <c r="AC23" s="116"/>
       <c r="AD23" s="116"/>
@@ -12056,75 +12003,49 @@
       <c r="AM23" s="116"/>
       <c r="AN23" s="116"/>
     </row>
-    <row r="24" spans="1:40" s="32" customFormat="1" ht="11.15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="247" t="str">
+    <row r="24" spans="1:40" s="32" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="206" t="str">
         <f>IF(LEN(E12)&gt;0, VLOOKUP("D11",tblTrans3Langs[],LangFieldID,FALSE)&amp; " (" &amp; E12 &amp;")", VLOOKUP("D11",tblTrans3Langs[],LangFieldID,FALSE))</f>
         <v>Fleet ID</v>
       </c>
-      <c r="B24" s="248"/>
-      <c r="C24" s="248" t="str">
+      <c r="B24" s="207"/>
+      <c r="C24" s="207" t="str">
         <f>VLOOKUP("D12",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Time series / gear</v>
       </c>
-      <c r="D24" s="248"/>
-      <c r="E24" s="249"/>
-      <c r="F24" s="247" t="str">
+      <c r="D24" s="207"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="206" t="str">
         <f>VLOOKUP("D13",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Geographic area</v>
       </c>
-      <c r="G24" s="248"/>
-      <c r="H24" s="248"/>
-      <c r="I24" s="249"/>
-      <c r="J24" s="247" t="str">
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="206" t="str">
         <f>VLOOKUP("D14",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Fishing mode and effort data</v>
       </c>
-      <c r="K24" s="248"/>
-      <c r="L24" s="248"/>
-      <c r="M24" s="248"/>
+      <c r="K24" s="207"/>
+      <c r="L24" s="207"/>
+      <c r="M24" s="207"/>
       <c r="N24" s="186" t="str">
         <f>VLOOKUP("CatchTypeCd",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Catch type (cod)</v>
       </c>
-      <c r="O24" s="116" t="s">
-        <v>496</v>
-      </c>
-      <c r="P24" s="116" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q24" s="116" t="s">
-        <v>496</v>
-      </c>
-      <c r="R24" s="116" t="s">
-        <v>496</v>
-      </c>
-      <c r="S24" s="116" t="s">
-        <v>496</v>
-      </c>
-      <c r="T24" s="116" t="s">
-        <v>496</v>
-      </c>
-      <c r="U24" s="116" t="s">
-        <v>496</v>
-      </c>
-      <c r="V24" s="116" t="s">
-        <v>496</v>
-      </c>
-      <c r="W24" s="116" t="s">
-        <v>496</v>
-      </c>
-      <c r="X24" s="116" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y24" s="116" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z24" s="116" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA24" s="116" t="s">
-        <v>496</v>
-      </c>
+      <c r="O24" s="116"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="116"/>
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="116"/>
       <c r="AB24" s="116"/>
       <c r="AC24" s="116"/>
       <c r="AD24" s="116"/>
@@ -12139,7 +12060,7 @@
       <c r="AM24" s="116"/>
       <c r="AN24" s="116"/>
     </row>
-    <row r="25" spans="1:40" s="10" customFormat="1" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A25" s="115" t="str">
         <f>VLOOKUP(A27,tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Flag of Vessel (cod)</v>
@@ -12196,37 +12117,37 @@
         <f>VLOOKUP(N27,tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Effort 2 type (cod)</v>
       </c>
-      <c r="O25" s="203" t="str">
+      <c r="O25" s="236" t="str">
         <f>VLOOKUP("D21",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Tuna &amp; tuna-like species, sharks (targetted and by-catch)</v>
       </c>
-      <c r="P25" s="204"/>
-      <c r="Q25" s="204"/>
-      <c r="R25" s="204"/>
-      <c r="S25" s="204"/>
-      <c r="T25" s="204"/>
-      <c r="U25" s="204"/>
-      <c r="V25" s="204"/>
-      <c r="W25" s="204"/>
-      <c r="X25" s="204"/>
-      <c r="Y25" s="204"/>
-      <c r="Z25" s="204"/>
-      <c r="AA25" s="204"/>
-      <c r="AB25" s="204"/>
-      <c r="AC25" s="204"/>
-      <c r="AD25" s="204"/>
-      <c r="AE25" s="204"/>
-      <c r="AF25" s="204"/>
-      <c r="AG25" s="204"/>
-      <c r="AH25" s="204"/>
-      <c r="AI25" s="204"/>
-      <c r="AJ25" s="204"/>
-      <c r="AK25" s="204"/>
-      <c r="AL25" s="204"/>
-      <c r="AM25" s="205"/>
+      <c r="P25" s="237"/>
+      <c r="Q25" s="237"/>
+      <c r="R25" s="237"/>
+      <c r="S25" s="237"/>
+      <c r="T25" s="237"/>
+      <c r="U25" s="237"/>
+      <c r="V25" s="237"/>
+      <c r="W25" s="237"/>
+      <c r="X25" s="237"/>
+      <c r="Y25" s="237"/>
+      <c r="Z25" s="237"/>
+      <c r="AA25" s="237"/>
+      <c r="AB25" s="237"/>
+      <c r="AC25" s="237"/>
+      <c r="AD25" s="237"/>
+      <c r="AE25" s="237"/>
+      <c r="AF25" s="237"/>
+      <c r="AG25" s="237"/>
+      <c r="AH25" s="237"/>
+      <c r="AI25" s="237"/>
+      <c r="AJ25" s="237"/>
+      <c r="AK25" s="237"/>
+      <c r="AL25" s="237"/>
+      <c r="AM25" s="238"/>
       <c r="AN25" s="119"/>
     </row>
-    <row r="26" spans="1:40" s="20" customFormat="1" ht="10.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" s="20" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="188" t="str" cm="1">
         <f t="array" ref="A26">IF(SUMPRODUCT(MAX(($A28:J50&lt;&gt;"")*ROW($A28:J50)))=0,"",IF(SUMPRODUCT(MAX(($A28:A50&lt;&gt;"")*ROW($A28:A50))+1)&lt;&gt;SUMPRODUCT(MAX(($C28:$J50&lt;&gt;"")*ROW($C28:$J50))+1),"error",IF(COUNTA($A28:A50)&lt;&gt;IFERROR(MATCH(REPT("z",255),$A28:A50),0),"error","ok")))</f>
         <v/>
@@ -12366,7 +12287,7 @@
       </c>
       <c r="AM26" s="121"/>
     </row>
-    <row r="27" spans="1:40" s="10" customFormat="1" ht="10.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="79" t="s">
         <v>1687</v>
       </c>
@@ -12488,7 +12409,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="28" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="142"/>
       <c r="B28" s="142"/>
       <c r="C28" s="143"/>
@@ -12530,7 +12451,7 @@
       <c r="AM28" s="143"/>
       <c r="AN28" s="143"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" s="142"/>
       <c r="B29" s="142"/>
       <c r="C29" s="143"/>
@@ -12572,7 +12493,7 @@
       <c r="AM29" s="143"/>
       <c r="AN29" s="143"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" s="142"/>
       <c r="B30" s="142"/>
       <c r="C30" s="143"/>
@@ -12614,7 +12535,7 @@
       <c r="AM30" s="143"/>
       <c r="AN30" s="143"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" s="142"/>
       <c r="B31" s="142"/>
       <c r="C31" s="143"/>
@@ -12656,7 +12577,7 @@
       <c r="AM31" s="143"/>
       <c r="AN31" s="143"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" s="142"/>
       <c r="B32" s="142"/>
       <c r="C32" s="143"/>
@@ -12698,7 +12619,7 @@
       <c r="AM32" s="143"/>
       <c r="AN32" s="143"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33" s="142"/>
       <c r="B33" s="142"/>
       <c r="C33" s="143"/>
@@ -12740,7 +12661,7 @@
       <c r="AM33" s="143"/>
       <c r="AN33" s="143"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A34" s="142"/>
       <c r="B34" s="142"/>
       <c r="C34" s="143"/>
@@ -12782,7 +12703,7 @@
       <c r="AM34" s="143"/>
       <c r="AN34" s="143"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35" s="142"/>
       <c r="B35" s="142"/>
       <c r="C35" s="143"/>
@@ -12824,7 +12745,7 @@
       <c r="AM35" s="143"/>
       <c r="AN35" s="143"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36" s="142"/>
       <c r="B36" s="142"/>
       <c r="C36" s="143"/>
@@ -12866,7 +12787,7 @@
       <c r="AM36" s="143"/>
       <c r="AN36" s="143"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A37" s="142"/>
       <c r="B37" s="142"/>
       <c r="C37" s="143"/>
@@ -12908,7 +12829,7 @@
       <c r="AM37" s="143"/>
       <c r="AN37" s="143"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" s="142"/>
       <c r="B38" s="142"/>
       <c r="C38" s="143"/>
@@ -12950,7 +12871,7 @@
       <c r="AM38" s="143"/>
       <c r="AN38" s="143"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39" s="142"/>
       <c r="B39" s="142"/>
       <c r="C39" s="143"/>
@@ -12992,7 +12913,7 @@
       <c r="AM39" s="143"/>
       <c r="AN39" s="143"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A40" s="142"/>
       <c r="B40" s="142"/>
       <c r="C40" s="143"/>
@@ -13034,7 +12955,7 @@
       <c r="AM40" s="143"/>
       <c r="AN40" s="143"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="142"/>
       <c r="B41" s="142"/>
       <c r="C41" s="143"/>
@@ -13076,7 +12997,7 @@
       <c r="AM41" s="143"/>
       <c r="AN41" s="143"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A42" s="142"/>
       <c r="B42" s="142"/>
       <c r="C42" s="143"/>
@@ -13118,7 +13039,7 @@
       <c r="AM42" s="143"/>
       <c r="AN42" s="143"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A43" s="142"/>
       <c r="B43" s="142"/>
       <c r="C43" s="143"/>
@@ -13160,7 +13081,7 @@
       <c r="AM43" s="143"/>
       <c r="AN43" s="143"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" s="142"/>
       <c r="B44" s="142"/>
       <c r="C44" s="143"/>
@@ -13202,7 +13123,7 @@
       <c r="AM44" s="143"/>
       <c r="AN44" s="143"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A45" s="142"/>
       <c r="B45" s="142"/>
       <c r="C45" s="143"/>
@@ -13244,7 +13165,7 @@
       <c r="AM45" s="143"/>
       <c r="AN45" s="143"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A46" s="142"/>
       <c r="B46" s="142"/>
       <c r="C46" s="143"/>
@@ -13286,7 +13207,7 @@
       <c r="AM46" s="143"/>
       <c r="AN46" s="143"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A47" s="142"/>
       <c r="B47" s="142"/>
       <c r="C47" s="143"/>
@@ -13328,7 +13249,7 @@
       <c r="AM47" s="143"/>
       <c r="AN47" s="143"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A48" s="142"/>
       <c r="B48" s="142"/>
       <c r="C48" s="143"/>
@@ -13370,7 +13291,7 @@
       <c r="AM48" s="143"/>
       <c r="AN48" s="143"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A49" s="142"/>
       <c r="B49" s="142"/>
       <c r="C49" s="143"/>
@@ -13412,7 +13333,7 @@
       <c r="AM49" s="143"/>
       <c r="AN49" s="143"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A50" s="142"/>
       <c r="B50" s="142"/>
       <c r="C50" s="143"/>
@@ -13457,34 +13378,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6WDNH6KmhsqxT7SuPZyId4BCAoRnfZ/h0wk83nx92CHQO19ryMRCVuRr8yv13U0blwq4ZXb2aCgVluBkraIO2w==" saltValue="cKLNnQj6X1Rosx7bk4SOJg==" spinCount="100000" sheet="1" formatCells="0" formatRows="0" insertColumns="0" insertRows="0" deleteRows="0" autoFilter="0"/>
   <mergeCells count="44">
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:P1"/>
-    <mergeCell ref="C2:P2"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="O25:AM25"/>
     <mergeCell ref="O21:AM21"/>
     <mergeCell ref="G6:I6"/>
@@ -13501,6 +13394,34 @@
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="C2:P2"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="J24:M24"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A26 C26:D26 H26:I26">
@@ -13590,17 +13511,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
+      <formula>"error"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>ISERROR(J$24)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="10" priority="15">
       <formula>ISNA(J$24)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
       <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
-      <formula>"error"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
       <formula>"error"</formula>
@@ -13785,60 +13706,60 @@
       <selection pane="bottomLeft" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="10.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.07421875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.4609375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.84375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="10.4609375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.07421875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.23046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.84375" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.23046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.84375" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.84375" style="11" customWidth="1"/>
-    <col min="16" max="16" width="13.4609375" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="45.07421875" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.4609375" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.84375" style="11" customWidth="1"/>
-    <col min="20" max="20" width="15.765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="53.84375" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.4609375" style="11"/>
+    <col min="3" max="3" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="11" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="45.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="11" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="53.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="252" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="254" t="s">
         <v>1799</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="H1" s="253" t="s">
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="H1" s="255" t="s">
         <v>791</v>
       </c>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
-      <c r="N1" s="253"/>
-      <c r="P1" s="254" t="s">
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
+      <c r="N1" s="255"/>
+      <c r="P1" s="256" t="s">
         <v>864</v>
       </c>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="254"/>
-      <c r="T1" s="254" t="s">
+      <c r="Q1" s="256"/>
+      <c r="R1" s="256"/>
+      <c r="T1" s="256" t="s">
         <v>1754</v>
       </c>
-      <c r="U1" s="254"/>
-    </row>
-    <row r="2" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+      <c r="U1" s="256"/>
+    </row>
+    <row r="2" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="156" t="s">
         <v>657</v>
       </c>
@@ -13894,7 +13815,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="177" t="s">
         <v>336</v>
       </c>
@@ -13948,7 +13869,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="177" t="s">
         <v>29</v>
       </c>
@@ -14002,7 +13923,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="177" t="s">
         <v>32</v>
       </c>
@@ -14056,7 +13977,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="177" t="s">
         <v>37</v>
       </c>
@@ -14110,7 +14031,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="177" t="s">
         <v>502</v>
       </c>
@@ -14166,7 +14087,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="177" t="s">
         <v>665</v>
       </c>
@@ -14222,7 +14143,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="177" t="s">
         <v>52</v>
       </c>
@@ -14276,7 +14197,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="177" t="s">
         <v>59</v>
       </c>
@@ -14332,7 +14253,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="177" t="s">
         <v>669</v>
       </c>
@@ -14386,7 +14307,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="177" t="s">
         <v>557</v>
       </c>
@@ -14442,7 +14363,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="177" t="s">
         <v>1768</v>
       </c>
@@ -14498,7 +14419,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="177" t="s">
         <v>2217</v>
       </c>
@@ -14542,7 +14463,7 @@
       <c r="Q14" s="175" t="s">
         <v>1997</v>
       </c>
-      <c r="R14" s="289" t="s">
+      <c r="R14" s="203" t="s">
         <v>158</v>
       </c>
       <c r="T14" s="49" t="s">
@@ -14552,7 +14473,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="177" t="s">
         <v>2219</v>
       </c>
@@ -14606,7 +14527,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A16" s="177" t="s">
         <v>2221</v>
       </c>
@@ -14660,7 +14581,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A17" s="177" t="s">
         <v>2223</v>
       </c>
@@ -14716,7 +14637,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A18" s="177" t="s">
         <v>2225</v>
       </c>
@@ -14772,7 +14693,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A19" s="177" t="s">
         <v>2227</v>
       </c>
@@ -14826,7 +14747,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A20" s="177" t="s">
         <v>2229</v>
       </c>
@@ -14880,7 +14801,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A21" s="177" t="s">
         <v>2231</v>
       </c>
@@ -14932,7 +14853,7 @@
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
     </row>
-    <row r="22" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A22" s="177" t="s">
         <v>2233</v>
       </c>
@@ -14976,11 +14897,11 @@
       <c r="Q22" s="175" t="s">
         <v>1784</v>
       </c>
-      <c r="R22" s="289" t="s">
+      <c r="R22" s="203" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A23" s="177" t="s">
         <v>2235</v>
       </c>
@@ -15027,12 +14948,12 @@
       <c r="R23" s="175" t="s">
         <v>326</v>
       </c>
-      <c r="T23" s="254" t="s">
+      <c r="T23" s="256" t="s">
         <v>1755</v>
       </c>
-      <c r="U23" s="254"/>
-    </row>
-    <row r="24" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+      <c r="U23" s="256"/>
+    </row>
+    <row r="24" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A24" s="177" t="s">
         <v>2237</v>
       </c>
@@ -15088,7 +15009,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A25" s="177" t="s">
         <v>2239</v>
       </c>
@@ -15132,7 +15053,7 @@
       <c r="Q25" s="175" t="s">
         <v>1785</v>
       </c>
-      <c r="R25" s="289" t="s">
+      <c r="R25" s="203" t="s">
         <v>326</v>
       </c>
       <c r="T25" s="49" t="s">
@@ -15142,7 +15063,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A26" s="177" t="s">
         <v>2241</v>
       </c>
@@ -15198,7 +15119,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A27" s="177" t="s">
         <v>2243</v>
       </c>
@@ -15252,7 +15173,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A28" s="177" t="s">
         <v>2245</v>
       </c>
@@ -15306,7 +15227,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A29" s="177" t="s">
         <v>2247</v>
       </c>
@@ -15352,7 +15273,7 @@
       <c r="Q29" s="175" t="s">
         <v>1788</v>
       </c>
-      <c r="R29" s="289" t="s">
+      <c r="R29" s="203" t="s">
         <v>231</v>
       </c>
       <c r="T29" s="49" t="s">
@@ -15362,7 +15283,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A30" s="177" t="s">
         <v>2249</v>
       </c>
@@ -15416,7 +15337,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A31" s="177" t="s">
         <v>2251</v>
       </c>
@@ -15470,7 +15391,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A32" s="177" t="s">
         <v>2253</v>
       </c>
@@ -15520,7 +15441,7 @@
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
     </row>
-    <row r="33" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A33" s="177" t="s">
         <v>2255</v>
       </c>
@@ -15566,13 +15487,13 @@
       <c r="Q33" s="175" t="s">
         <v>1791</v>
       </c>
-      <c r="R33" s="290" t="s">
+      <c r="R33" s="175" t="s">
         <v>334</v>
       </c>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
     </row>
-    <row r="34" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A34" s="177" t="s">
         <v>2257</v>
       </c>
@@ -15616,15 +15537,15 @@
       <c r="Q34" s="175" t="s">
         <v>2320</v>
       </c>
-      <c r="R34" s="289" t="s">
+      <c r="R34" s="203" t="s">
         <v>222</v>
       </c>
-      <c r="T34" s="254" t="s">
+      <c r="T34" s="256" t="s">
         <v>1958</v>
       </c>
-      <c r="U34" s="254"/>
-    </row>
-    <row r="35" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+      <c r="U34" s="256"/>
+    </row>
+    <row r="35" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A35" s="177" t="s">
         <v>2259</v>
       </c>
@@ -15678,7 +15599,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A36" s="177" t="s">
         <v>2261</v>
       </c>
@@ -15734,7 +15655,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A37" s="177" t="s">
         <v>2263</v>
       </c>
@@ -15788,7 +15709,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A38" s="177" t="s">
         <v>2265</v>
       </c>
@@ -15832,7 +15753,7 @@
       <c r="Q38" s="175" t="s">
         <v>2322</v>
       </c>
-      <c r="R38" s="289" t="s">
+      <c r="R38" s="203" t="s">
         <v>274</v>
       </c>
       <c r="T38" s="57" t="s">
@@ -15842,7 +15763,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A39" s="177" t="s">
         <v>2267</v>
       </c>
@@ -15890,7 +15811,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A40" s="177" t="s">
         <v>2269</v>
       </c>
@@ -15938,7 +15859,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A41" s="177" t="s">
         <v>382</v>
       </c>
@@ -15982,15 +15903,15 @@
       <c r="Q41" s="175" t="s">
         <v>544</v>
       </c>
-      <c r="R41" s="289" t="s">
+      <c r="R41" s="203" t="s">
         <v>253</v>
       </c>
-      <c r="T41" s="254" t="s">
+      <c r="T41" s="256" t="s">
         <v>1938</v>
       </c>
-      <c r="U41" s="254"/>
-    </row>
-    <row r="42" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+      <c r="U41" s="256"/>
+    </row>
+    <row r="42" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A42" s="177" t="s">
         <v>505</v>
       </c>
@@ -16034,7 +15955,7 @@
       <c r="Q42" s="175" t="s">
         <v>2323</v>
       </c>
-      <c r="R42" s="291" t="s">
+      <c r="R42" s="204" t="s">
         <v>282</v>
       </c>
       <c r="T42" s="60" t="s">
@@ -16044,7 +15965,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A43" s="177" t="s">
         <v>2271</v>
       </c>
@@ -16088,7 +16009,7 @@
       <c r="Q43" s="175" t="s">
         <v>2324</v>
       </c>
-      <c r="R43" s="289" t="s">
+      <c r="R43" s="203" t="s">
         <v>265</v>
       </c>
       <c r="T43" s="62" t="s">
@@ -16098,7 +16019,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A44" s="177" t="s">
         <v>2273</v>
       </c>
@@ -16152,7 +16073,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A45" s="177" t="s">
         <v>166</v>
       </c>
@@ -16196,7 +16117,7 @@
       <c r="Q45" s="175" t="s">
         <v>1773</v>
       </c>
-      <c r="R45" s="289" t="s">
+      <c r="R45" s="203" t="s">
         <v>347</v>
       </c>
       <c r="T45" s="62" t="s">
@@ -16206,7 +16127,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A46" s="177" t="s">
         <v>388</v>
       </c>
@@ -16250,7 +16171,7 @@
       <c r="Q46" s="175" t="s">
         <v>322</v>
       </c>
-      <c r="R46" s="291" t="s">
+      <c r="R46" s="204" t="s">
         <v>321</v>
       </c>
       <c r="T46" s="62" t="s">
@@ -16260,7 +16181,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A47" s="177" t="s">
         <v>174</v>
       </c>
@@ -16306,7 +16227,7 @@
       <c r="Q47" s="175" t="s">
         <v>545</v>
       </c>
-      <c r="R47" s="291" t="s">
+      <c r="R47" s="204" t="s">
         <v>269</v>
       </c>
       <c r="T47" s="62" t="s">
@@ -16316,7 +16237,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" ht="12" x14ac:dyDescent="0.2">
       <c r="A48" s="177" t="s">
         <v>2275</v>
       </c>
@@ -16360,7 +16281,7 @@
       <c r="Q48" s="175" t="s">
         <v>2326</v>
       </c>
-      <c r="R48" s="291" t="s">
+      <c r="R48" s="204" t="s">
         <v>1960</v>
       </c>
       <c r="T48" s="65" t="s">
@@ -16370,7 +16291,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" ht="12" x14ac:dyDescent="0.2">
       <c r="A49" s="177" t="s">
         <v>392</v>
       </c>
@@ -16414,11 +16335,11 @@
       <c r="Q49" s="175" t="s">
         <v>1795</v>
       </c>
-      <c r="R49" s="289" t="s">
+      <c r="R49" s="203" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" ht="12" x14ac:dyDescent="0.2">
       <c r="A50" s="177" t="s">
         <v>394</v>
       </c>
@@ -16465,12 +16386,12 @@
         <v>1798</v>
       </c>
       <c r="R50" s="191"/>
-      <c r="T50" s="254" t="s">
+      <c r="T50" s="256" t="s">
         <v>1752</v>
       </c>
-      <c r="U50" s="254"/>
-    </row>
-    <row r="51" spans="1:22" ht="12" x14ac:dyDescent="0.35">
+      <c r="U50" s="256"/>
+    </row>
+    <row r="51" spans="1:22" ht="12" x14ac:dyDescent="0.2">
       <c r="A51" s="177" t="s">
         <v>507</v>
       </c>
@@ -16517,7 +16438,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" ht="12" x14ac:dyDescent="0.2">
       <c r="A52" s="177" t="s">
         <v>161</v>
       </c>
@@ -16566,7 +16487,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" ht="12" x14ac:dyDescent="0.2">
       <c r="A53" s="177" t="s">
         <v>2276</v>
       </c>
@@ -16604,11 +16525,11 @@
       <c r="N53" s="139" t="s">
         <v>802</v>
       </c>
-      <c r="P53" s="254" t="s">
+      <c r="P53" s="256" t="s">
         <v>1756</v>
       </c>
-      <c r="Q53" s="254"/>
-      <c r="R53" s="254"/>
+      <c r="Q53" s="256"/>
+      <c r="R53" s="256"/>
       <c r="T53" s="65" t="s">
         <v>902</v>
       </c>
@@ -16616,7 +16537,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" ht="12" x14ac:dyDescent="0.2">
       <c r="A54" s="177" t="s">
         <v>182</v>
       </c>
@@ -16664,7 +16585,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" ht="12" x14ac:dyDescent="0.2">
       <c r="A55" s="177" t="s">
         <v>191</v>
       </c>
@@ -16712,7 +16633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" ht="12" x14ac:dyDescent="0.2">
       <c r="A56" s="177" t="s">
         <v>200</v>
       </c>
@@ -16759,12 +16680,12 @@
       <c r="R56" s="64">
         <v>2</v>
       </c>
-      <c r="T56" s="254" t="s">
+      <c r="T56" s="256" t="s">
         <v>1753</v>
       </c>
-      <c r="U56" s="254"/>
-    </row>
-    <row r="57" spans="1:22" ht="12" x14ac:dyDescent="0.35">
+      <c r="U56" s="256"/>
+    </row>
+    <row r="57" spans="1:22" ht="12" x14ac:dyDescent="0.2">
       <c r="A57" s="177" t="s">
         <v>2277</v>
       </c>
@@ -16821,7 +16742,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" ht="12" x14ac:dyDescent="0.2">
       <c r="A58" s="177" t="s">
         <v>413</v>
       </c>
@@ -16878,7 +16799,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" ht="12" x14ac:dyDescent="0.2">
       <c r="A59" s="177" t="s">
         <v>212</v>
       </c>
@@ -16926,7 +16847,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22" ht="12" x14ac:dyDescent="0.2">
       <c r="A60" s="177" t="s">
         <v>224</v>
       </c>
@@ -16979,7 +16900,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22" ht="12" x14ac:dyDescent="0.2">
       <c r="A61" s="177" t="s">
         <v>422</v>
       </c>
@@ -17017,11 +16938,11 @@
       <c r="N61" s="139" t="s">
         <v>802</v>
       </c>
-      <c r="P61" s="254" t="s">
+      <c r="P61" s="256" t="s">
         <v>1757</v>
       </c>
-      <c r="Q61" s="254"/>
-      <c r="R61" s="254"/>
+      <c r="Q61" s="256"/>
+      <c r="R61" s="256"/>
       <c r="T61" s="140" t="s">
         <v>906</v>
       </c>
@@ -17032,7 +16953,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:22" ht="12" x14ac:dyDescent="0.2">
       <c r="A62" s="177" t="s">
         <v>234</v>
       </c>
@@ -17080,7 +17001,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:22" ht="12" x14ac:dyDescent="0.2">
       <c r="A63" s="177" t="s">
         <v>243</v>
       </c>
@@ -17128,7 +17049,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" ht="12" x14ac:dyDescent="0.2">
       <c r="A64" s="177" t="s">
         <v>499</v>
       </c>
@@ -17176,7 +17097,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A65" s="177" t="s">
         <v>433</v>
       </c>
@@ -17220,7 +17141,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A66" s="177" t="s">
         <v>2278</v>
       </c>
@@ -17259,7 +17180,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A67" s="177" t="s">
         <v>436</v>
       </c>
@@ -17301,7 +17222,7 @@
       <c r="Q67" s="20"/>
       <c r="R67" s="73"/>
     </row>
-    <row r="68" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A68" s="177" t="s">
         <v>246</v>
       </c>
@@ -17337,12 +17258,12 @@
       <c r="N68" s="139" t="s">
         <v>802</v>
       </c>
-      <c r="P68" s="254" t="s">
+      <c r="P68" s="256" t="s">
         <v>1949</v>
       </c>
-      <c r="Q68" s="254"/>
-    </row>
-    <row r="69" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+      <c r="Q68" s="256"/>
+    </row>
+    <row r="69" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A69" s="177" t="s">
         <v>255</v>
       </c>
@@ -17390,7 +17311,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A70" s="177" t="s">
         <v>260</v>
       </c>
@@ -17438,7 +17359,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A71" s="177" t="s">
         <v>2281</v>
       </c>
@@ -17488,7 +17409,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A72" s="177" t="s">
         <v>2282</v>
       </c>
@@ -17532,7 +17453,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A73" s="177" t="s">
         <v>442</v>
       </c>
@@ -17582,7 +17503,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A74" s="177" t="s">
         <v>445</v>
       </c>
@@ -17630,7 +17551,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A75" s="177" t="s">
         <v>266</v>
       </c>
@@ -17673,7 +17594,7 @@
       <c r="Q75" s="20"/>
       <c r="R75" s="73"/>
     </row>
-    <row r="76" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A76" s="177" t="s">
         <v>2285</v>
       </c>
@@ -17715,7 +17636,7 @@
       <c r="Q76" s="20"/>
       <c r="R76" s="73"/>
     </row>
-    <row r="77" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A77" s="177" t="s">
         <v>724</v>
       </c>
@@ -17757,7 +17678,7 @@
       <c r="Q77" s="20"/>
       <c r="R77" s="73"/>
     </row>
-    <row r="78" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A78" s="177" t="s">
         <v>270</v>
       </c>
@@ -17801,7 +17722,7 @@
       <c r="Q78" s="20"/>
       <c r="R78" s="73"/>
     </row>
-    <row r="79" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A79" s="177" t="s">
         <v>272</v>
       </c>
@@ -17843,7 +17764,7 @@
       <c r="Q79" s="20"/>
       <c r="R79" s="73"/>
     </row>
-    <row r="80" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A80" s="177" t="s">
         <v>2328</v>
       </c>
@@ -17885,7 +17806,7 @@
       <c r="Q80" s="20"/>
       <c r="R80" s="73"/>
     </row>
-    <row r="81" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A81" s="177" t="s">
         <v>2286</v>
       </c>
@@ -17927,7 +17848,7 @@
       <c r="Q81" s="20"/>
       <c r="R81" s="73"/>
     </row>
-    <row r="82" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A82" s="177" t="s">
         <v>2288</v>
       </c>
@@ -17969,7 +17890,7 @@
       <c r="Q82" s="20"/>
       <c r="R82" s="73"/>
     </row>
-    <row r="83" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A83" s="177" t="s">
         <v>2290</v>
       </c>
@@ -18011,7 +17932,7 @@
       <c r="Q83" s="20"/>
       <c r="R83" s="73"/>
     </row>
-    <row r="84" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A84" s="177" t="s">
         <v>2292</v>
       </c>
@@ -18055,7 +17976,7 @@
       <c r="Q84" s="20"/>
       <c r="R84" s="73"/>
     </row>
-    <row r="85" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A85" s="177" t="s">
         <v>285</v>
       </c>
@@ -18099,7 +18020,7 @@
       <c r="Q85" s="20"/>
       <c r="R85" s="73"/>
     </row>
-    <row r="86" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A86" s="177" t="s">
         <v>290</v>
       </c>
@@ -18141,7 +18062,7 @@
       <c r="Q86" s="20"/>
       <c r="R86" s="73"/>
     </row>
-    <row r="87" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A87" s="177" t="s">
         <v>323</v>
       </c>
@@ -18185,7 +18106,7 @@
       <c r="Q87" s="20"/>
       <c r="R87" s="73"/>
     </row>
-    <row r="88" spans="1:18" ht="12.45" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="177" t="s">
         <v>2294</v>
       </c>
@@ -18227,7 +18148,7 @@
       <c r="Q88" s="20"/>
       <c r="R88" s="73"/>
     </row>
-    <row r="89" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A89" s="177" t="s">
         <v>558</v>
       </c>
@@ -18266,7 +18187,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A90" s="177" t="s">
         <v>328</v>
       </c>
@@ -18305,7 +18226,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A91" s="177" t="s">
         <v>374</v>
       </c>
@@ -18344,7 +18265,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A92" s="177" t="s">
         <v>331</v>
       </c>
@@ -18383,7 +18304,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="12.45" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="177" t="s">
         <v>532</v>
       </c>
@@ -18422,7 +18343,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A94" s="177" t="s">
         <v>1806</v>
       </c>
@@ -18461,7 +18382,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A95" s="177" t="s">
         <v>526</v>
       </c>
@@ -18500,7 +18421,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" ht="12" x14ac:dyDescent="0.2">
       <c r="A96" s="177" t="s">
         <v>342</v>
       </c>
@@ -18539,7 +18460,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A97" s="177" t="s">
         <v>344</v>
       </c>
@@ -18578,7 +18499,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A98" s="177" t="s">
         <v>501</v>
       </c>
@@ -18617,7 +18538,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A99" s="177" t="s">
         <v>1809</v>
       </c>
@@ -18656,7 +18577,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A100" s="177" t="s">
         <v>527</v>
       </c>
@@ -18695,7 +18616,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A101" s="177" t="s">
         <v>350</v>
       </c>
@@ -18734,7 +18655,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A102" s="177" t="s">
         <v>352</v>
       </c>
@@ -18773,7 +18694,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A103" s="177" t="s">
         <v>2184</v>
       </c>
@@ -18812,7 +18733,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A104" s="177" t="s">
         <v>1812</v>
       </c>
@@ -18851,7 +18772,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A105" s="177" t="s">
         <v>1955</v>
       </c>
@@ -18890,7 +18811,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A106" s="177" t="s">
         <v>355</v>
       </c>
@@ -18929,7 +18850,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A107" s="177" t="s">
         <v>357</v>
       </c>
@@ -18968,7 +18889,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A108" s="177" t="s">
         <v>365</v>
       </c>
@@ -19007,7 +18928,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A109" s="177" t="s">
         <v>503</v>
       </c>
@@ -19046,7 +18967,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A110" s="177" t="s">
         <v>369</v>
       </c>
@@ -19085,7 +19006,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A111" s="177" t="s">
         <v>372</v>
       </c>
@@ -19124,7 +19045,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A112" s="177" t="s">
         <v>1815</v>
       </c>
@@ -19163,7 +19084,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A113" s="177" t="s">
         <v>376</v>
       </c>
@@ -19202,7 +19123,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A114" s="177" t="s">
         <v>1966</v>
       </c>
@@ -19241,7 +19162,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A115" s="177" t="s">
         <v>378</v>
       </c>
@@ -19276,7 +19197,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A116" s="177" t="s">
         <v>380</v>
       </c>
@@ -19315,7 +19236,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A117" s="177" t="s">
         <v>529</v>
       </c>
@@ -19352,7 +19273,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A118" s="177" t="s">
         <v>531</v>
       </c>
@@ -19391,7 +19312,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A119" s="177" t="s">
         <v>385</v>
       </c>
@@ -19430,7 +19351,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A120" s="177" t="s">
         <v>1818</v>
       </c>
@@ -19469,7 +19390,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A121" s="177" t="s">
         <v>390</v>
       </c>
@@ -19508,7 +19429,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A122" s="177" t="s">
         <v>2297</v>
       </c>
@@ -19547,7 +19468,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A123" s="177" t="s">
         <v>1821</v>
       </c>
@@ -19586,7 +19507,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A124" s="177" t="s">
         <v>1824</v>
       </c>
@@ -19625,7 +19546,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A125" s="177" t="s">
         <v>508</v>
       </c>
@@ -19664,7 +19585,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A126" s="177" t="s">
         <v>1827</v>
       </c>
@@ -19703,7 +19624,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A127" s="177" t="s">
         <v>768</v>
       </c>
@@ -19742,7 +19663,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A128" s="177" t="s">
         <v>2187</v>
       </c>
@@ -19781,7 +19702,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A129" s="177" t="s">
         <v>397</v>
       </c>
@@ -19820,7 +19741,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A130" s="177" t="s">
         <v>403</v>
       </c>
@@ -19859,7 +19780,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A131" s="177" t="s">
         <v>1830</v>
       </c>
@@ -19898,7 +19819,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A132" s="177" t="s">
         <v>1833</v>
       </c>
@@ -19937,7 +19858,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A133" s="177" t="s">
         <v>1836</v>
       </c>
@@ -19976,7 +19897,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A134" s="177" t="s">
         <v>411</v>
       </c>
@@ -20015,7 +19936,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A135" s="177" t="s">
         <v>1839</v>
       </c>
@@ -20054,7 +19975,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A136" s="177" t="s">
         <v>511</v>
       </c>
@@ -20093,7 +20014,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A137" s="177" t="s">
         <v>1842</v>
       </c>
@@ -20132,7 +20053,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A138" s="177" t="s">
         <v>1845</v>
       </c>
@@ -20171,7 +20092,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A139" s="177" t="s">
         <v>513</v>
       </c>
@@ -20210,7 +20131,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A140" s="177" t="s">
         <v>1848</v>
       </c>
@@ -20249,7 +20170,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A141" s="177" t="s">
         <v>2190</v>
       </c>
@@ -20288,7 +20209,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A142" s="177" t="s">
         <v>560</v>
       </c>
@@ -20327,7 +20248,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A143" s="177" t="s">
         <v>1851</v>
       </c>
@@ -20366,7 +20287,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A144" s="177" t="s">
         <v>1854</v>
       </c>
@@ -20405,7 +20326,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A145" s="177" t="s">
         <v>1857</v>
       </c>
@@ -20444,7 +20365,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A146" s="177" t="s">
         <v>2300</v>
       </c>
@@ -20483,7 +20404,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A147" s="177" t="s">
         <v>1860</v>
       </c>
@@ -20522,7 +20443,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A148" s="177" t="s">
         <v>1863</v>
       </c>
@@ -20561,7 +20482,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A149" s="177" t="s">
         <v>777</v>
       </c>
@@ -20600,7 +20521,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A150" s="177" t="s">
         <v>1866</v>
       </c>
@@ -20639,7 +20560,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A151" s="177" t="s">
         <v>1869</v>
       </c>
@@ -20678,7 +20599,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A152" s="177" t="s">
         <v>1872</v>
       </c>
@@ -20717,7 +20638,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A153" s="177" t="s">
         <v>439</v>
       </c>
@@ -20756,7 +20677,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A154" s="177" t="s">
         <v>2211</v>
       </c>
@@ -20795,7 +20716,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A155" s="177" t="s">
         <v>515</v>
       </c>
@@ -20836,7 +20757,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A156" s="177" t="s">
         <v>1875</v>
       </c>
@@ -20875,7 +20796,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A157" s="177" t="s">
         <v>2301</v>
       </c>
@@ -20914,7 +20835,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A158" s="177" t="s">
         <v>1878</v>
       </c>
@@ -20953,7 +20874,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A159" s="177" t="s">
         <v>562</v>
       </c>
@@ -20992,7 +20913,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A160" s="177" t="s">
         <v>517</v>
       </c>
@@ -21031,7 +20952,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A161" s="177" t="s">
         <v>564</v>
       </c>
@@ -21070,7 +20991,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A162" s="177" t="s">
         <v>1880</v>
       </c>
@@ -21109,7 +21030,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A163" s="177" t="s">
         <v>1883</v>
       </c>
@@ -21148,7 +21069,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A164" s="177" t="s">
         <v>2304</v>
       </c>
@@ -21187,7 +21108,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A165" s="177" t="s">
         <v>566</v>
       </c>
@@ -21226,7 +21147,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A166" s="177" t="s">
         <v>1886</v>
       </c>
@@ -21265,7 +21186,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A167" s="177" t="s">
         <v>518</v>
       </c>
@@ -21304,7 +21225,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A168" s="177" t="s">
         <v>454</v>
       </c>
@@ -21343,7 +21264,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A169" s="177" t="s">
         <v>1889</v>
       </c>
@@ -21382,7 +21303,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A170" s="177" t="s">
         <v>1892</v>
       </c>
@@ -21421,7 +21342,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A171" s="177" t="s">
         <v>520</v>
       </c>
@@ -21460,7 +21381,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A172" s="177" t="s">
         <v>456</v>
       </c>
@@ -21499,7 +21420,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A173" s="177" t="s">
         <v>1895</v>
       </c>
@@ -21538,7 +21459,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A174" s="177" t="s">
         <v>319</v>
       </c>
@@ -21577,7 +21498,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A175" s="177" t="s">
         <v>1898</v>
       </c>
@@ -21616,7 +21537,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H176" s="138" t="s">
         <v>1181</v>
       </c>
@@ -21639,7 +21560,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="177" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="177" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H177" s="138" t="s">
         <v>1186</v>
       </c>
@@ -21662,7 +21583,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="178" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="178" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H178" s="138" t="s">
         <v>1191</v>
       </c>
@@ -21685,7 +21606,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="179" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="179" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H179" s="138" t="s">
         <v>1196</v>
       </c>
@@ -21708,7 +21629,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="180" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="180" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H180" s="138" t="s">
         <v>1201</v>
       </c>
@@ -21731,7 +21652,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="181" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="181" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H181" s="138" t="s">
         <v>1206</v>
       </c>
@@ -21754,7 +21675,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="182" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="182" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H182" s="138" t="s">
         <v>1211</v>
       </c>
@@ -21777,7 +21698,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="183" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="183" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H183" s="138" t="s">
         <v>1216</v>
       </c>
@@ -21800,7 +21721,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="184" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="184" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H184" s="138" t="s">
         <v>1221</v>
       </c>
@@ -21823,7 +21744,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="185" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="185" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H185" s="138" t="s">
         <v>1226</v>
       </c>
@@ -21846,7 +21767,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="186" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="186" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H186" s="138" t="s">
         <v>1231</v>
       </c>
@@ -21869,7 +21790,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="187" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="187" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H187" s="138" t="s">
         <v>1236</v>
       </c>
@@ -21892,7 +21813,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="188" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="188" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H188" s="138" t="s">
         <v>1241</v>
       </c>
@@ -21915,7 +21836,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="189" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="189" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H189" s="138" t="s">
         <v>1246</v>
       </c>
@@ -21938,7 +21859,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="190" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="190" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H190" s="138" t="s">
         <v>1251</v>
       </c>
@@ -21961,7 +21882,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="191" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="191" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H191" s="138" t="s">
         <v>1256</v>
       </c>
@@ -21984,7 +21905,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="192" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="192" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H192" s="138" t="s">
         <v>1261</v>
       </c>
@@ -22007,7 +21928,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="193" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="193" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H193" s="138" t="s">
         <v>1266</v>
       </c>
@@ -22030,7 +21951,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="194" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="194" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H194" s="138" t="s">
         <v>1271</v>
       </c>
@@ -22053,7 +21974,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="195" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="195" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H195" s="138" t="s">
         <v>1276</v>
       </c>
@@ -22076,7 +21997,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="196" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="196" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H196" s="138" t="s">
         <v>1281</v>
       </c>
@@ -22099,7 +22020,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="197" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="197" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H197" s="138" t="s">
         <v>1286</v>
       </c>
@@ -22122,7 +22043,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="198" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="198" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H198" s="138" t="s">
         <v>1291</v>
       </c>
@@ -22145,7 +22066,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="199" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="199" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H199" s="138" t="s">
         <v>1296</v>
       </c>
@@ -22168,7 +22089,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="200" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="200" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H200" s="138" t="s">
         <v>1301</v>
       </c>
@@ -22191,7 +22112,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="201" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="201" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H201" s="138" t="s">
         <v>1306</v>
       </c>
@@ -22214,7 +22135,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="202" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="202" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H202" s="138" t="s">
         <v>1311</v>
       </c>
@@ -22237,7 +22158,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="203" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="203" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H203" s="138" t="s">
         <v>1316</v>
       </c>
@@ -22256,7 +22177,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="204" spans="8:14" ht="12" x14ac:dyDescent="0.35">
+    <row r="204" spans="8:14" ht="12" x14ac:dyDescent="0.2">
       <c r="H204" s="140" t="s">
         <v>1319</v>
       </c>
@@ -22314,19 +22235,19 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.84375" defaultRowHeight="12" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.4609375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.4609375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.765625" style="74" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="84.4609375" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="6.84375" style="2"/>
+    <col min="1" max="2" width="8.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="74" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.42578125" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="6.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="269" t="str">
         <f>VLOOKUP("G00",tblTrans3Langs[],LangNameID,FALSE) &amp;" ( "&amp;Idiom&amp;" )"</f>
         <v>Instructions to complete the form ( ENG )</v>
@@ -22339,7 +22260,7 @@
       <c r="G1" s="269"/>
       <c r="H1" s="269"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="270" t="str">
         <f>VLOOKUP("G01",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>General</v>
@@ -22352,82 +22273,82 @@
       <c r="G2" s="155"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="B3" s="268" t="str">
+      <c r="B3" s="257" t="str">
         <f>VLOOKUP("G01a",tblTrans3Langs[],LangNameID,FALSE)</f>
         <v>Complete as far as possible the Header and Detail sections (don't leave fields empty when information is known)</v>
       </c>
-      <c r="C3" s="268"/>
-      <c r="D3" s="268"/>
-      <c r="E3" s="268"/>
-      <c r="F3" s="268"/>
-      <c r="G3" s="268"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="B4" s="268" t="str">
+      <c r="B4" s="257" t="str">
         <f>VLOOKUP("G01b",tblTrans3Langs[],LangNameID,FALSE)</f>
         <v>In Header section, only white cells can be filled (manually or by selecting from the Combo Box the corresponding code)</v>
       </c>
-      <c r="C4" s="268"/>
-      <c r="D4" s="268"/>
-      <c r="E4" s="268"/>
-      <c r="F4" s="268"/>
-      <c r="G4" s="268"/>
+      <c r="C4" s="257"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="257"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="B5" s="268" t="str">
+      <c r="B5" s="257" t="str">
         <f>VLOOKUP("G01c",tblTrans3Langs[],LangNameID,FALSE)</f>
         <v>Always use ICCAT standard codes (when element "OTHERS" of various fields is required it must be explicitly described in "Notes")</v>
       </c>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
-      <c r="G5" s="268"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="B6" s="268" t="str">
+      <c r="B6" s="257" t="str">
         <f>VLOOKUP("G01d",tblTrans3Langs[],LangNameID,FALSE)</f>
         <v>Recommendation for users with databases: To paste an entire dataset into the Detail section (must have the same structure and format) use "Paste special (values)"</v>
       </c>
-      <c r="C6" s="268"/>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="268"/>
-      <c r="G6" s="268"/>
+      <c r="C6" s="257"/>
+      <c r="D6" s="257"/>
+      <c r="E6" s="257"/>
+      <c r="F6" s="257"/>
+      <c r="G6" s="257"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="B7" s="268" t="str">
+      <c r="B7" s="257" t="str">
         <f>VLOOKUP("G01e",tblTrans3Langs[],LangNameID,FALSE)</f>
         <v>Leave "blank" the fields for which you don't collect information</v>
       </c>
-      <c r="C7" s="268"/>
-      <c r="D7" s="268"/>
-      <c r="E7" s="268"/>
-      <c r="F7" s="268"/>
-      <c r="G7" s="268"/>
+      <c r="C7" s="257"/>
+      <c r="D7" s="257"/>
+      <c r="E7" s="257"/>
+      <c r="F7" s="257"/>
+      <c r="G7" s="257"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -22435,20 +22356,20 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="275" t="str">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="264" t="str">
         <f>VLOOKUP("S00",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Specific (by field)</v>
       </c>
-      <c r="B9" s="275"/>
-      <c r="C9" s="275"/>
-      <c r="D9" s="275"/>
-      <c r="E9" s="275"/>
+      <c r="B9" s="264"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="264"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="str">
         <f>VLOOKUP("SC01",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Form</v>
@@ -22482,21 +22403,21 @@
         <v>Description</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="276" t="str">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="265" t="str">
         <f>VLOOKUP("T00",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>ST03-T2CE</v>
       </c>
-      <c r="B11" s="255" t="str">
+      <c r="B11" s="271" t="str">
         <f>VLOOKUP("T03",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>ST03A</v>
       </c>
-      <c r="C11" s="274" t="str">
+      <c r="C11" s="262" t="str">
         <f>VLOOKUP("T02",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Title</v>
       </c>
-      <c r="D11" s="274"/>
-      <c r="E11" s="274"/>
+      <c r="D11" s="262"/>
+      <c r="E11" s="262"/>
       <c r="F11" s="154" t="str">
         <f>VLOOKUP("tVersion",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Version</v>
@@ -22510,12 +22431,12 @@
         <v>Form Title</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="276"/>
-      <c r="B12" s="256"/>
-      <c r="C12" s="274"/>
-      <c r="D12" s="274"/>
-      <c r="E12" s="274"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="265"/>
+      <c r="B12" s="272"/>
+      <c r="C12" s="262"/>
+      <c r="D12" s="262"/>
+      <c r="E12" s="262"/>
       <c r="F12" s="154" t="str">
         <f>VLOOKUP("tLang",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Language</v>
@@ -22529,18 +22450,18 @@
         <v>Choose the language (ENG, FRA, ESP) for form translation</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="276"/>
-      <c r="B13" s="256"/>
-      <c r="C13" s="259" t="str">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="265"/>
+      <c r="B13" s="272"/>
+      <c r="C13" s="274" t="str">
         <f>VLOOKUP("H00",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Header</v>
       </c>
-      <c r="D13" s="260" t="str">
+      <c r="D13" s="275" t="str">
         <f>VLOOKUP("H10",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Statistical Correspondent</v>
       </c>
-      <c r="E13" s="261" t="str">
+      <c r="E13" s="259" t="str">
         <f>VLOOKUP("H11",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Identification</v>
       </c>
@@ -22557,12 +22478,12 @@
         <v>Name (full OR Name &amp; Surname) of the Statistical Correspondent (officially nominated by the CPC)</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="276"/>
-      <c r="B14" s="256"/>
-      <c r="C14" s="259"/>
-      <c r="D14" s="260"/>
-      <c r="E14" s="261"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="265"/>
+      <c r="B14" s="272"/>
+      <c r="C14" s="274"/>
+      <c r="D14" s="275"/>
+      <c r="E14" s="259"/>
       <c r="F14" s="133" t="str">
         <f>VLOOKUP("hEmail",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>E-mail</v>
@@ -22576,12 +22497,12 @@
         <v>Email address of the Statistical Correspondent</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="276"/>
-      <c r="B15" s="256"/>
-      <c r="C15" s="259"/>
-      <c r="D15" s="260"/>
-      <c r="E15" s="261"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="265"/>
+      <c r="B15" s="272"/>
+      <c r="C15" s="274"/>
+      <c r="D15" s="275"/>
+      <c r="E15" s="259"/>
       <c r="F15" s="133" t="str">
         <f>VLOOKUP("hPhone",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Phone</v>
@@ -22595,12 +22516,12 @@
         <v>Telephone number of the Statistical Correspondent</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="276"/>
-      <c r="B16" s="256"/>
-      <c r="C16" s="259"/>
-      <c r="D16" s="260"/>
-      <c r="E16" s="261" t="str">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="265"/>
+      <c r="B16" s="272"/>
+      <c r="C16" s="274"/>
+      <c r="D16" s="275"/>
+      <c r="E16" s="259" t="str">
         <f>VLOOKUP("H12",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Affiliation</v>
       </c>
@@ -22617,12 +22538,12 @@
         <v>Institute (ministry, agency, research Institute, etc.) to which the Statistical Correspondent is affiliated</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="276"/>
-      <c r="B17" s="256"/>
-      <c r="C17" s="259"/>
-      <c r="D17" s="260"/>
-      <c r="E17" s="261"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="265"/>
+      <c r="B17" s="272"/>
+      <c r="C17" s="274"/>
+      <c r="D17" s="275"/>
+      <c r="E17" s="259"/>
       <c r="F17" s="133" t="str">
         <f>VLOOKUP("hDepart",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Department</v>
@@ -22636,12 +22557,12 @@
         <v>Department within the Institution, where applicable</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="276"/>
-      <c r="B18" s="256"/>
-      <c r="C18" s="259"/>
-      <c r="D18" s="260"/>
-      <c r="E18" s="261"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="265"/>
+      <c r="B18" s="272"/>
+      <c r="C18" s="274"/>
+      <c r="D18" s="275"/>
+      <c r="E18" s="259"/>
       <c r="F18" s="133" t="str">
         <f>VLOOKUP("hAddress",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Address</v>
@@ -22655,12 +22576,12 @@
         <v>Postal address of the institution (street, number, city, state)</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="276"/>
-      <c r="B19" s="256"/>
-      <c r="C19" s="259"/>
-      <c r="D19" s="260"/>
-      <c r="E19" s="261"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="265"/>
+      <c r="B19" s="272"/>
+      <c r="C19" s="274"/>
+      <c r="D19" s="275"/>
+      <c r="E19" s="259"/>
       <c r="F19" s="133" t="str">
         <f>VLOOKUP("hCountry",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Country</v>
@@ -22674,15 +22595,15 @@
         <v>Country in which the Institution is based</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="276"/>
-      <c r="B20" s="256"/>
-      <c r="C20" s="259"/>
-      <c r="D20" s="258" t="str">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="265"/>
+      <c r="B20" s="272"/>
+      <c r="C20" s="274"/>
+      <c r="D20" s="263" t="str">
         <f>VLOOKUP("H20",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Secretariat use only</v>
       </c>
-      <c r="E20" s="258"/>
+      <c r="E20" s="263"/>
       <c r="F20" s="133" t="str">
         <f>VLOOKUP("hDaterep",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Date reported</v>
@@ -22696,12 +22617,12 @@
         <v>Secretariat use only</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="276"/>
-      <c r="B21" s="256"/>
-      <c r="C21" s="259"/>
-      <c r="D21" s="258"/>
-      <c r="E21" s="258"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="265"/>
+      <c r="B21" s="272"/>
+      <c r="C21" s="274"/>
+      <c r="D21" s="263"/>
+      <c r="E21" s="263"/>
       <c r="F21" s="133" t="str">
         <f>VLOOKUP("hRef",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Reference Nº</v>
@@ -22715,12 +22636,12 @@
         <v>Secretariat use only</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="276"/>
-      <c r="B22" s="256"/>
-      <c r="C22" s="259"/>
-      <c r="D22" s="258"/>
-      <c r="E22" s="258"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="265"/>
+      <c r="B22" s="272"/>
+      <c r="C22" s="274"/>
+      <c r="D22" s="263"/>
+      <c r="E22" s="263"/>
       <c r="F22" s="133" t="str">
         <f>VLOOKUP("hFname",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>File name (proposed)</v>
@@ -22734,12 +22655,12 @@
         <v>Send the form to ICCAT with the proposed file name (if required, suffix it with an ID at the end)</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="276"/>
-      <c r="B23" s="256"/>
-      <c r="C23" s="259"/>
-      <c r="D23" s="258"/>
-      <c r="E23" s="258" t="str">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="265"/>
+      <c r="B23" s="272"/>
+      <c r="C23" s="274"/>
+      <c r="D23" s="263"/>
+      <c r="E23" s="263" t="str">
         <f>VLOOKUP("H21",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Filtering criteria</v>
       </c>
@@ -22756,12 +22677,12 @@
         <v>Secretariat use only</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="276"/>
-      <c r="B24" s="256"/>
-      <c r="C24" s="259"/>
-      <c r="D24" s="258"/>
-      <c r="E24" s="258"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="265"/>
+      <c r="B24" s="272"/>
+      <c r="C24" s="274"/>
+      <c r="D24" s="263"/>
+      <c r="E24" s="263"/>
       <c r="F24" s="133" t="str">
         <f>VLOOKUP("hFilter2",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Filter 2</v>
@@ -22775,15 +22696,15 @@
         <v>Secretariat use only</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="12.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="276"/>
-      <c r="B25" s="256"/>
-      <c r="C25" s="259"/>
-      <c r="D25" s="265" t="str">
+    <row r="25" spans="1:8" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="265"/>
+      <c r="B25" s="272"/>
+      <c r="C25" s="274"/>
+      <c r="D25" s="279" t="str">
         <f>VLOOKUP("H30",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Data set characteristics</v>
       </c>
-      <c r="E25" s="258"/>
+      <c r="E25" s="263"/>
       <c r="F25" s="133" t="str">
         <f>VLOOKUP("hFlagrep",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Reporting Flag</v>
@@ -22797,12 +22718,12 @@
         <v>Choose the Flag CPC reporting the data (ICCAT codes)</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="276"/>
-      <c r="B26" s="256"/>
-      <c r="C26" s="259"/>
-      <c r="D26" s="266"/>
-      <c r="E26" s="258"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="265"/>
+      <c r="B26" s="272"/>
+      <c r="C26" s="274"/>
+      <c r="D26" s="280"/>
+      <c r="E26" s="263"/>
       <c r="F26" s="133" t="str">
         <f>VLOOKUP("hYearfrom",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Years covered (from)</v>
@@ -22816,12 +22737,12 @@
         <v>One or more years can be added to the form. Add the first (from) year (4 digits) to which the data relate</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="276"/>
-      <c r="B27" s="256"/>
-      <c r="C27" s="259"/>
-      <c r="D27" s="266"/>
-      <c r="E27" s="258"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="265"/>
+      <c r="B27" s="272"/>
+      <c r="C27" s="274"/>
+      <c r="D27" s="280"/>
+      <c r="E27" s="263"/>
       <c r="F27" s="133" t="str">
         <f>VLOOKUP("hYearto",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>(to)</v>
@@ -22835,12 +22756,12 @@
         <v>One or more years can be added to the form. Add the last (to) year (4 digits) to which the data relate</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="24" x14ac:dyDescent="0.35">
-      <c r="A28" s="276"/>
-      <c r="B28" s="256"/>
-      <c r="C28" s="259"/>
-      <c r="D28" s="266"/>
-      <c r="E28" s="258"/>
+    <row r="28" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A28" s="265"/>
+      <c r="B28" s="272"/>
+      <c r="C28" s="274"/>
+      <c r="D28" s="280"/>
+      <c r="E28" s="263"/>
       <c r="F28" s="133" t="str">
         <f>VLOOKUP("hDatacov",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Data coverage %</v>
@@ -22854,12 +22775,12 @@
         <v>Enter a proxy indicator of the coverage ratio (%) of the current data against the total (0% for unknown; 100% for total coverage) catch and effort statistics</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="276"/>
-      <c r="B29" s="256"/>
-      <c r="C29" s="259"/>
-      <c r="D29" s="266"/>
-      <c r="E29" s="258"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="265"/>
+      <c r="B29" s="272"/>
+      <c r="C29" s="274"/>
+      <c r="D29" s="280"/>
+      <c r="E29" s="263"/>
       <c r="F29" s="133" t="str">
         <f>VLOOKUP("hDsourceCd",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Data source (cod)</v>
@@ -22873,12 +22794,12 @@
         <v>Choose the source from which the data were compiled (ICCAT codes)</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="276"/>
-      <c r="B30" s="256"/>
-      <c r="C30" s="259"/>
-      <c r="D30" s="266"/>
-      <c r="E30" s="258"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="265"/>
+      <c r="B30" s="272"/>
+      <c r="C30" s="274"/>
+      <c r="D30" s="280"/>
+      <c r="E30" s="263"/>
       <c r="F30" s="133" t="str">
         <f>VLOOKUP("hVersion",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Version reported</v>
@@ -22892,12 +22813,12 @@
         <v>Specify if this submission is Preliminary (subject to revision) or Final (already validated)</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="276"/>
-      <c r="B31" s="256"/>
-      <c r="C31" s="259"/>
-      <c r="D31" s="266"/>
-      <c r="E31" s="258"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="265"/>
+      <c r="B31" s="272"/>
+      <c r="C31" s="274"/>
+      <c r="D31" s="280"/>
+      <c r="E31" s="263"/>
       <c r="F31" s="133" t="str">
         <f>VLOOKUP("hContent",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Content (data)</v>
@@ -22911,12 +22832,12 @@
         <v>Specify if the overall data content is NEW (full set OR partial set) OR a REVISION (full set OR partial set)</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="24" x14ac:dyDescent="0.35">
-      <c r="A32" s="276"/>
-      <c r="B32" s="256"/>
-      <c r="C32" s="259"/>
-      <c r="D32" s="266"/>
-      <c r="E32" s="262" t="str">
+    <row r="32" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A32" s="265"/>
+      <c r="B32" s="272"/>
+      <c r="C32" s="274"/>
+      <c r="D32" s="280"/>
+      <c r="E32" s="276" t="str">
         <f>VLOOKUP("H31",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Effort (multiplier)</v>
       </c>
@@ -22933,12 +22854,12 @@
         <v>Choose the effort unit multiplier (x1=units, x100=hundreds, etc.,) of the effort reported as Effort 1 (1st measure) in detail section</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="24" x14ac:dyDescent="0.35">
-      <c r="A33" s="276"/>
-      <c r="B33" s="256"/>
-      <c r="C33" s="259"/>
-      <c r="D33" s="266"/>
-      <c r="E33" s="262"/>
+    <row r="33" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A33" s="265"/>
+      <c r="B33" s="272"/>
+      <c r="C33" s="274"/>
+      <c r="D33" s="280"/>
+      <c r="E33" s="276"/>
       <c r="F33" s="133" t="str">
         <f>VLOOKUP("hEff2unit",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Effort 2 (fixed)</v>
@@ -22952,12 +22873,12 @@
         <v>Choose the effort unit multiplier (x1=units, x100=hundreds, etc.,) of the effort reported as Effort 2 (2nd measure) in detail section</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="276"/>
-      <c r="B34" s="256"/>
-      <c r="C34" s="259"/>
-      <c r="D34" s="266"/>
-      <c r="E34" s="263" t="str">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="265"/>
+      <c r="B34" s="272"/>
+      <c r="C34" s="274"/>
+      <c r="D34" s="280"/>
+      <c r="E34" s="277" t="str">
         <f>VLOOKUP("H32",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Catch attributes</v>
       </c>
@@ -22974,12 +22895,12 @@
         <v>Shows the number of species reported in number: [NR]</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="276"/>
-      <c r="B35" s="256"/>
-      <c r="C35" s="259"/>
-      <c r="D35" s="267"/>
-      <c r="E35" s="264"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="265"/>
+      <c r="B35" s="272"/>
+      <c r="C35" s="274"/>
+      <c r="D35" s="281"/>
+      <c r="E35" s="278"/>
       <c r="F35" s="198" t="str">
         <f>VLOOKUP("hNrSpcCatchW",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>N. columns (sp*) in weight (kg)</v>
@@ -22993,15 +22914,15 @@
         <v>Shows the number of species reported in weight (kg): [LW, GG, DW]</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="276"/>
-      <c r="B36" s="256"/>
-      <c r="C36" s="259"/>
-      <c r="D36" s="261" t="str">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="265"/>
+      <c r="B36" s="272"/>
+      <c r="C36" s="274"/>
+      <c r="D36" s="259" t="str">
         <f>VLOOKUP("H40",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Other attributes</v>
       </c>
-      <c r="E36" s="261"/>
+      <c r="E36" s="259"/>
       <c r="F36" s="133" t="str">
         <f>VLOOKUP("hNotes",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Notes</v>
@@ -23015,18 +22936,18 @@
         <v>Add additional (complementary) notes in respect to the overall dataset (if needed)</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="276"/>
-      <c r="B37" s="256"/>
-      <c r="C37" s="271" t="str">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="265"/>
+      <c r="B37" s="272"/>
+      <c r="C37" s="258" t="str">
         <f>VLOOKUP("D00",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Detail</v>
       </c>
-      <c r="D37" s="272" t="str">
+      <c r="D37" s="260" t="str">
         <f>VLOOKUP("D10",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Catch and effort attributes</v>
       </c>
-      <c r="E37" s="272" t="str">
+      <c r="E37" s="260" t="str">
         <f>VLOOKUP("D11",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Fleet ID</v>
       </c>
@@ -23043,12 +22964,12 @@
         <v>Choose the flag of the vessel for which the data apply (whether national or foreign flagged vessel)</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
-      <c r="A38" s="276"/>
-      <c r="B38" s="256"/>
-      <c r="C38" s="271"/>
-      <c r="D38" s="272"/>
-      <c r="E38" s="272"/>
+    <row r="38" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A38" s="265"/>
+      <c r="B38" s="272"/>
+      <c r="C38" s="258"/>
+      <c r="D38" s="260"/>
+      <c r="E38" s="260"/>
       <c r="F38" s="122" t="str">
         <f>VLOOKUP("FleetSuffix",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v xml:space="preserve">Fleet suffix </v>
@@ -23062,12 +22983,12 @@
         <v>This field should be completed by those CPCs operating various fisheries with an independent data collection system (e.g. Portugal-Azores, Spain-Fuenterrabía, etc.). Additional fleet sufixes (former base ports/zones) can be adopted.</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="276"/>
-      <c r="B39" s="256"/>
-      <c r="C39" s="271"/>
-      <c r="D39" s="272"/>
-      <c r="E39" s="272" t="str">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="265"/>
+      <c r="B39" s="272"/>
+      <c r="C39" s="258"/>
+      <c r="D39" s="260"/>
+      <c r="E39" s="260" t="str">
         <f>VLOOKUP("D12",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Time series / gear</v>
       </c>
@@ -23084,12 +23005,12 @@
         <v>Calendar year (four digits) in which the catch was taken</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="276"/>
-      <c r="B40" s="256"/>
-      <c r="C40" s="271"/>
-      <c r="D40" s="272"/>
-      <c r="E40" s="272"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="265"/>
+      <c r="B40" s="272"/>
+      <c r="C40" s="258"/>
+      <c r="D40" s="260"/>
+      <c r="E40" s="260"/>
       <c r="F40" s="122" t="str">
         <f>VLOOKUP("Month",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Month</v>
@@ -23103,12 +23024,12 @@
         <v>Catch and effort should be reported by month (January= 1; December= 12)</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="276"/>
-      <c r="B41" s="256"/>
-      <c r="C41" s="271"/>
-      <c r="D41" s="272"/>
-      <c r="E41" s="272"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="265"/>
+      <c r="B41" s="272"/>
+      <c r="C41" s="258"/>
+      <c r="D41" s="260"/>
+      <c r="E41" s="260"/>
       <c r="F41" s="122" t="str">
         <f>VLOOKUP("GearCd",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Gear (cod)</v>
@@ -23122,12 +23043,12 @@
         <v>Choose the Gear code (ICCAT codes)</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="276"/>
-      <c r="B42" s="256"/>
-      <c r="C42" s="271"/>
-      <c r="D42" s="272"/>
-      <c r="E42" s="272" t="str">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A42" s="265"/>
+      <c r="B42" s="272"/>
+      <c r="C42" s="258"/>
+      <c r="D42" s="260"/>
+      <c r="E42" s="260" t="str">
         <f>VLOOKUP("D13",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Geographic area</v>
       </c>
@@ -23144,12 +23065,12 @@
         <v>Choose the square type (ICCAT code). By default, 5x5 squares should be used for Longline and 1x1 for other gears</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="276"/>
-      <c r="B43" s="256"/>
-      <c r="C43" s="271"/>
-      <c r="D43" s="272"/>
-      <c r="E43" s="272"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="265"/>
+      <c r="B43" s="272"/>
+      <c r="C43" s="258"/>
+      <c r="D43" s="260"/>
+      <c r="E43" s="260"/>
       <c r="F43" s="122" t="str">
         <f>VLOOKUP("QuadCd",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Quad (cod)</v>
@@ -23163,12 +23084,12 @@
         <v>Choose the quadrant (ICCAT codes: NE(1); SE(2); SW(3); NW(4))</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="276"/>
-      <c r="B44" s="256"/>
-      <c r="C44" s="271"/>
-      <c r="D44" s="272"/>
-      <c r="E44" s="272"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="265"/>
+      <c r="B44" s="272"/>
+      <c r="C44" s="258"/>
+      <c r="D44" s="260"/>
+      <c r="E44" s="260"/>
       <c r="F44" s="122" t="str">
         <f>VLOOKUP("Lat",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Lat</v>
@@ -23182,12 +23103,12 @@
         <v>Latitude of the corner of the square closest to 0º (multiples of the Square Type code)</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="276"/>
-      <c r="B45" s="256"/>
-      <c r="C45" s="271"/>
-      <c r="D45" s="272"/>
-      <c r="E45" s="272"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="265"/>
+      <c r="B45" s="272"/>
+      <c r="C45" s="258"/>
+      <c r="D45" s="260"/>
+      <c r="E45" s="260"/>
       <c r="F45" s="122" t="str">
         <f>VLOOKUP("Lon",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Lon</v>
@@ -23201,12 +23122,12 @@
         <v>Longitude of the corner of the square closest to 0º (multiples of the Square Type code)</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="12.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="276"/>
-      <c r="B46" s="256"/>
-      <c r="C46" s="271"/>
-      <c r="D46" s="272"/>
-      <c r="E46" s="277" t="str">
+    <row r="46" spans="1:8" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="265"/>
+      <c r="B46" s="272"/>
+      <c r="C46" s="258"/>
+      <c r="D46" s="260"/>
+      <c r="E46" s="266" t="str">
         <f>VLOOKUP("D14",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Fishing mode and effort data</v>
       </c>
@@ -23223,12 +23144,12 @@
         <v>Choose the school type (FAD or Free School) if the gear is "purse seine". Not applicable (n/a or "blank") by default</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="276"/>
-      <c r="B47" s="256"/>
-      <c r="C47" s="271"/>
-      <c r="D47" s="272"/>
-      <c r="E47" s="278"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="265"/>
+      <c r="B47" s="272"/>
+      <c r="C47" s="258"/>
+      <c r="D47" s="260"/>
+      <c r="E47" s="267"/>
       <c r="F47" s="122" t="str">
         <f>VLOOKUP("Effort1",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Effort 1</v>
@@ -23242,12 +23163,12 @@
         <v>Enter the amount of Effort (1st measure is mandatory) observed (Effort 1 type defined in adjacent field)</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="276"/>
-      <c r="B48" s="256"/>
-      <c r="C48" s="271"/>
-      <c r="D48" s="272"/>
-      <c r="E48" s="278"/>
+    <row r="48" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A48" s="265"/>
+      <c r="B48" s="272"/>
+      <c r="C48" s="258"/>
+      <c r="D48" s="260"/>
+      <c r="E48" s="267"/>
       <c r="F48" s="122" t="str">
         <f>VLOOKUP("Eff1TypeCd",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Effort 1 type (cod)</v>
@@ -23261,12 +23182,12 @@
         <v>Effort type of previous field (1st measure-mandatory). By default: "hooks" for LL, "days/hours/etc..." for other gears</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="276"/>
-      <c r="B49" s="256"/>
-      <c r="C49" s="271"/>
-      <c r="D49" s="272"/>
-      <c r="E49" s="278"/>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="265"/>
+      <c r="B49" s="272"/>
+      <c r="C49" s="258"/>
+      <c r="D49" s="260"/>
+      <c r="E49" s="267"/>
       <c r="F49" s="122" t="str">
         <f>VLOOKUP("Effort2",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Effort 2</v>
@@ -23280,12 +23201,12 @@
         <v>Enter the amount of Effort (2nd measure is optional) observed (Effort 2 type defined in adjacent field)</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="276"/>
-      <c r="B50" s="256"/>
-      <c r="C50" s="271"/>
-      <c r="D50" s="272"/>
-      <c r="E50" s="279"/>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="265"/>
+      <c r="B50" s="272"/>
+      <c r="C50" s="258"/>
+      <c r="D50" s="260"/>
+      <c r="E50" s="268"/>
       <c r="F50" s="122" t="str">
         <f>VLOOKUP("Eff2TypeCd", tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Effort 2 type (cod)</v>
@@ -23299,15 +23220,15 @@
         <v>Effort type of previous field (2nd measure-optional)</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="276"/>
-      <c r="B51" s="256"/>
-      <c r="C51" s="271"/>
-      <c r="D51" s="273" t="str">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="265"/>
+      <c r="B51" s="272"/>
+      <c r="C51" s="258"/>
+      <c r="D51" s="261" t="str">
         <f>VLOOKUP("D20",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Species catch composition</v>
       </c>
-      <c r="E51" s="273" t="str">
+      <c r="E51" s="261" t="str">
         <f>VLOOKUP("D21",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Tuna &amp; tuna-like species, sharks (targetted and by-catch)</v>
       </c>
@@ -23324,12 +23245,12 @@
         <v>Choose the species code (ICCAT codes)</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="276"/>
-      <c r="B52" s="256"/>
-      <c r="C52" s="271"/>
-      <c r="D52" s="273"/>
-      <c r="E52" s="273"/>
+    <row r="52" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A52" s="265"/>
+      <c r="B52" s="272"/>
+      <c r="C52" s="258"/>
+      <c r="D52" s="261"/>
+      <c r="E52" s="261"/>
       <c r="F52" s="123" t="str">
         <f>VLOOKUP("ProdTypCd",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Product type (cod)</v>
@@ -23343,12 +23264,12 @@
         <v>For each species choose type of product (round weight, dressed weight, etc.) of the catch reported (ICCAT code)</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="276"/>
-      <c r="B53" s="257"/>
-      <c r="C53" s="271"/>
-      <c r="D53" s="273"/>
-      <c r="E53" s="273"/>
+    <row r="53" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A53" s="265"/>
+      <c r="B53" s="273"/>
+      <c r="C53" s="258"/>
+      <c r="D53" s="261"/>
+      <c r="E53" s="261"/>
       <c r="F53" s="123" t="str">
         <f>VLOOKUP("CatchTypeCd", tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Catch type (cod)</v>
@@ -23362,12 +23283,27 @@
         <v>For each species, indicate whether the data refer to landings (L), dead discards (DD), live discards (DL), etc.</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G54" s="2"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="n3T/bcN0QyWk4naFpTuYwQ1dgbLM3aGaOHl8WOlIZPzG4t87dcjmgD9AnSNe1wkBqRPqFnYCqbCFqqGiSa0PZQ==" saltValue="1YAv3Yw9hBahPDPuZqa8Ig==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" autoFilter="0"/>
   <mergeCells count="31">
+    <mergeCell ref="B11:B53"/>
+    <mergeCell ref="E25:E31"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C13:C36"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D25:D35"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="C37:C53"/>
     <mergeCell ref="D36:E36"/>
@@ -23384,21 +23320,6 @@
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A11:A53"/>
     <mergeCell ref="E46:E50"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B11:B53"/>
-    <mergeCell ref="E25:E31"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C13:C36"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="D25:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23414,30 +23335,30 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="12" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="6.765625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="84.23046875" style="22" customWidth="1"/>
+    <col min="1" max="3" width="6.7109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" style="22" customWidth="1"/>
     <col min="5" max="5" width="11" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.84375" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.07421875" style="22"/>
+    <col min="7" max="7" width="13.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="22"/>
     <col min="10" max="10" width="25" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.07421875" style="22"/>
+    <col min="11" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.45" x14ac:dyDescent="0.35">
-      <c r="A1" s="286" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="288" t="s">
         <v>1758</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
       <c r="G1" s="21"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="str">
         <f>VLOOKUP("SC01",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>Form</v>
@@ -23462,12 +23383,12 @@
         <v>Status (2024)</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="280" t="str">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="282" t="str">
         <f>VLOOKUP("T00",tblTrans3Langs[],LangFieldID,FALSE)</f>
         <v>ST03-T2CE</v>
       </c>
-      <c r="B4" s="283">
+      <c r="B4" s="285">
         <v>1</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -23487,9 +23408,9 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="281"/>
-      <c r="B5" s="284"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="283"/>
+      <c r="B5" s="286"/>
       <c r="C5" s="27" t="s">
         <v>633</v>
       </c>
@@ -23506,9 +23427,9 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="281"/>
-      <c r="B6" s="285"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="283"/>
+      <c r="B6" s="287"/>
       <c r="C6" s="27" t="s">
         <v>634</v>
       </c>
@@ -23525,9 +23446,9 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="281"/>
-      <c r="B7" s="283">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="283"/>
+      <c r="B7" s="285">
         <v>2</v>
       </c>
       <c r="C7" s="25" t="s">
@@ -23546,9 +23467,9 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="281"/>
-      <c r="B8" s="284"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="283"/>
+      <c r="B8" s="286"/>
       <c r="C8" s="27" t="s">
         <v>633</v>
       </c>
@@ -23565,9 +23486,9 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="281"/>
-      <c r="B9" s="284"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="283"/>
+      <c r="B9" s="286"/>
       <c r="C9" s="27" t="s">
         <v>634</v>
       </c>
@@ -23584,9 +23505,9 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="281"/>
-      <c r="B10" s="284"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="283"/>
+      <c r="B10" s="286"/>
       <c r="C10" s="27" t="s">
         <v>635</v>
       </c>
@@ -23603,9 +23524,9 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="282"/>
-      <c r="B11" s="285"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="284"/>
+      <c r="B11" s="287"/>
       <c r="C11" s="29" t="s">
         <v>636</v>
       </c>
@@ -23622,16 +23543,16 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="287" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="289" t="s">
         <v>2347</v>
       </c>
-      <c r="B13" s="287"/>
-      <c r="C13" s="287"/>
-      <c r="D13" s="287"/>
-      <c r="E13" s="287"/>
-      <c r="F13" s="287"/>
-      <c r="G13" s="287"/>
+      <c r="B13" s="289"/>
+      <c r="C13" s="289"/>
+      <c r="D13" s="289"/>
+      <c r="E13" s="289"/>
+      <c r="F13" s="289"/>
+      <c r="G13" s="289"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="d1eGoEAxXYFPDLD4GrLo0VYN2VDw23bWoA2Ha1vGBh9dBpHE2PRWVUTMmmPWv+3TZLcmCdMnR4VnTXns8PfDOA==" saltValue="mjels+rmns6MkNQLR1cB8A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -23655,29 +23576,29 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="10.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.4609375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.84375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.84375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.84375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.23046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.84375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="26.765625" style="10" customWidth="1"/>
-    <col min="11" max="13" width="60.765625" style="11" customWidth="1"/>
-    <col min="14" max="16384" width="9.07421875" style="11"/>
+    <col min="6" max="6" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="26.7109375" style="10" customWidth="1"/>
+    <col min="11" max="13" width="60.7109375" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="11.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="288" t="s">
+    <row r="1" spans="1:13" ht="12" x14ac:dyDescent="0.2">
+      <c r="A1" s="290" t="s">
         <v>570</v>
       </c>
-      <c r="B1" s="288"/>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
+      <c r="B1" s="290"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
       <c r="H1" s="75" t="s">
         <v>1939</v>
       </c>
@@ -23686,7 +23607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="11.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -23698,12 +23619,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>571</v>
       </c>
@@ -23744,7 +23665,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="164" t="s">
         <v>1658</v>
       </c>
@@ -23785,7 +23706,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="168" t="s">
         <v>595</v>
       </c>
@@ -23826,7 +23747,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="164" t="s">
         <v>596</v>
       </c>
@@ -23867,7 +23788,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="168" t="s">
         <v>2175</v>
       </c>
@@ -23908,7 +23829,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="168" t="s">
         <v>2033</v>
       </c>
@@ -23949,7 +23870,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="168" t="s">
         <v>2037</v>
       </c>
@@ -23990,7 +23911,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="164" t="s">
         <v>1642</v>
       </c>
@@ -24031,7 +23952,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="164" t="s">
         <v>1608</v>
       </c>
@@ -24072,7 +23993,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="168" t="s">
         <v>1612</v>
       </c>
@@ -24113,7 +24034,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="168" t="s">
         <v>1613</v>
       </c>
@@ -24154,7 +24075,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="168" t="s">
         <v>1609</v>
       </c>
@@ -24195,7 +24116,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="169" t="s">
         <v>1614</v>
       </c>
@@ -24236,7 +24157,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="168" t="s">
         <v>1610</v>
       </c>
@@ -24277,7 +24198,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="168" t="s">
         <v>1664</v>
       </c>
@@ -24318,7 +24239,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="168" t="s">
         <v>1665</v>
       </c>
@@ -24359,7 +24280,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="164" t="s">
         <v>1611</v>
       </c>
@@ -24400,7 +24321,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="164" t="s">
         <v>1615</v>
       </c>
@@ -24441,7 +24362,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="164" t="s">
         <v>1616</v>
       </c>
@@ -24482,7 +24403,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="164" t="s">
         <v>1617</v>
       </c>
@@ -24523,7 +24444,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="164" t="s">
         <v>1618</v>
       </c>
@@ -24564,7 +24485,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="164" t="s">
         <v>1619</v>
       </c>
@@ -24605,7 +24526,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="164" t="s">
         <v>1620</v>
       </c>
@@ -24646,7 +24567,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="164" t="s">
         <v>1621</v>
       </c>
@@ -24687,7 +24608,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="164" t="s">
         <v>1622</v>
       </c>
@@ -24728,7 +24649,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A29" s="164" t="s">
         <v>1952</v>
       </c>
@@ -24769,7 +24690,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A30" s="164" t="s">
         <v>1953</v>
       </c>
@@ -24810,7 +24731,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A31" s="164" t="s">
         <v>1623</v>
       </c>
@@ -24851,7 +24772,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A32" s="168" t="s">
         <v>1631</v>
       </c>
@@ -24892,7 +24813,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A33" s="168" t="s">
         <v>1624</v>
       </c>
@@ -24933,7 +24854,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="168" t="s">
         <v>1668</v>
       </c>
@@ -24974,7 +24895,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A35" s="168" t="s">
         <v>1625</v>
       </c>
@@ -25015,7 +24936,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A36" s="168" t="s">
         <v>1626</v>
       </c>
@@ -25056,7 +24977,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="172" t="s">
         <v>2016</v>
       </c>
@@ -25097,7 +25018,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="172" t="s">
         <v>2017</v>
       </c>
@@ -25138,7 +25059,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="168" t="s">
         <v>1627</v>
       </c>
@@ -25179,7 +25100,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="164" t="s">
         <v>1628</v>
       </c>
@@ -25220,7 +25141,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A41" s="168" t="s">
         <v>1629</v>
       </c>
@@ -25261,7 +25182,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="168" t="s">
         <v>1674</v>
       </c>
@@ -25302,7 +25223,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="168" t="s">
         <v>1678</v>
       </c>
@@ -25343,7 +25264,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A44" s="168" t="s">
         <v>1630</v>
       </c>
@@ -25384,7 +25305,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="164" t="s">
         <v>1607</v>
       </c>
@@ -25425,7 +25346,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="164" t="s">
         <v>1647</v>
       </c>
@@ -25466,7 +25387,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="168" t="s">
         <v>1648</v>
       </c>
@@ -25507,7 +25428,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="168" t="s">
         <v>1649</v>
       </c>
@@ -25548,7 +25469,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="168" t="s">
         <v>1650</v>
       </c>
@@ -25589,7 +25510,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="168" t="s">
         <v>1651</v>
       </c>
@@ -25630,7 +25551,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A51" s="168" t="s">
         <v>1652</v>
       </c>
@@ -25671,7 +25592,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A52" s="168" t="s">
         <v>1686</v>
       </c>
@@ -25712,7 +25633,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A53" s="164" t="s">
         <v>1687</v>
       </c>
@@ -25753,7 +25674,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="32.15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A54" s="192" t="s">
         <v>2330</v>
       </c>
@@ -25794,7 +25715,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="168" t="s">
         <v>1606</v>
       </c>
@@ -25835,7 +25756,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="168" t="s">
         <v>8</v>
       </c>
@@ -25876,7 +25797,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="164" t="s">
         <v>1657</v>
       </c>
@@ -25917,7 +25838,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A58" s="169" t="s">
         <v>1694</v>
       </c>
@@ -25958,7 +25879,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="168" t="s">
         <v>1697</v>
       </c>
@@ -25999,7 +25920,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A60" s="168" t="s">
         <v>18</v>
       </c>
@@ -26040,7 +25961,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A61" s="168" t="s">
         <v>548</v>
       </c>
@@ -26081,7 +26002,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A62" s="169" t="s">
         <v>1711</v>
       </c>
@@ -26122,7 +26043,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A63" s="168" t="s">
         <v>638</v>
       </c>
@@ -26163,7 +26084,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A64" s="168" t="s">
         <v>1701</v>
       </c>
@@ -26204,7 +26125,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A65" s="168" t="s">
         <v>639</v>
       </c>
@@ -26245,7 +26166,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="168" t="s">
         <v>1704</v>
       </c>
@@ -26286,7 +26207,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="164" t="s">
         <v>1707</v>
       </c>
@@ -26327,7 +26248,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A68" s="168" t="s">
         <v>2014</v>
       </c>
@@ -26368,7 +26289,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A69" s="179" t="s">
         <v>2313</v>
       </c>
@@ -26409,7 +26330,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="168" t="s">
         <v>574</v>
       </c>
@@ -26450,7 +26371,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="164" t="s">
         <v>1656</v>
       </c>
@@ -26491,7 +26412,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A72" s="164" t="s">
         <v>578</v>
       </c>
@@ -26532,7 +26453,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A73" s="164" t="s">
         <v>1714</v>
       </c>
@@ -26573,7 +26494,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="21.45" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A74" s="164" t="s">
         <v>1715</v>
       </c>
@@ -26614,7 +26535,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="32.15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A75" s="164" t="s">
         <v>1716</v>
       </c>
@@ -26655,7 +26576,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="164" t="s">
         <v>1717</v>
       </c>
@@ -26696,7 +26617,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="164" t="s">
         <v>579</v>
       </c>
@@ -26737,7 +26658,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="168" t="s">
         <v>1635</v>
       </c>
@@ -26778,7 +26699,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="168" t="s">
         <v>1636</v>
       </c>
@@ -26819,7 +26740,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="164" t="s">
         <v>1637</v>
       </c>
@@ -26860,7 +26781,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="164" t="s">
         <v>1638</v>
       </c>
@@ -26901,7 +26822,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="164" t="s">
         <v>1639</v>
       </c>
@@ -26942,7 +26863,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="164" t="s">
         <v>1640</v>
       </c>
@@ -26983,7 +26904,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="164" t="s">
         <v>1641</v>
       </c>
@@ -27024,7 +26945,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="164" t="s">
         <v>2138</v>
       </c>
